--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engk01tr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503F3B36-5099-4BFE-B003-86F3DA3F765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{476C50E3-1AF3-44B8-90EB-7D8DF79DEF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="9" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1022510225" sheetId="8" r:id="rId1"/>
-    <sheet name="1022310223" sheetId="5" r:id="rId2"/>
-    <sheet name="1023110231" sheetId="10" r:id="rId3"/>
-    <sheet name="1022210222" sheetId="4" r:id="rId4"/>
-    <sheet name="1022110221" sheetId="3" r:id="rId5"/>
-    <sheet name="1022410224" sheetId="7" r:id="rId6"/>
-    <sheet name="1022610226" sheetId="9" r:id="rId7"/>
-    <sheet name="1022810228" sheetId="12" r:id="rId8"/>
+    <sheet name="1022310223" sheetId="5" r:id="rId1"/>
+    <sheet name="1023110231" sheetId="10" r:id="rId2"/>
+    <sheet name="1022410224" sheetId="7" r:id="rId3"/>
+    <sheet name="1023610236" sheetId="12" r:id="rId4"/>
+    <sheet name="1022510225" sheetId="8" r:id="rId5"/>
+    <sheet name="1022210222" sheetId="4" r:id="rId6"/>
+    <sheet name="1022110221" sheetId="3" r:id="rId7"/>
+    <sheet name="1022610226" sheetId="9" r:id="rId8"/>
     <sheet name="1022910229" sheetId="13" r:id="rId9"/>
     <sheet name="1022010220" sheetId="14" r:id="rId10"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="10">
   <si>
     <t>Ürün Kodu</t>
   </si>
@@ -486,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
-  <dimension ref="A1:G69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE53865-28EE-46CD-881F-9646B445FDFE}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E27"/>
+      <selection activeCell="D17" sqref="D17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,19 +532,19 @@
         <v>10031016</v>
       </c>
       <c r="B2" s="10">
-        <v>489</v>
+        <v>510.5</v>
       </c>
       <c r="C2" s="10">
-        <v>48.9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="10">
-        <v>440.1</v>
+        <v>506.5</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
       </c>
       <c r="F2" s="10">
-        <v>440.1</v>
+        <v>506.5</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>8</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>10042263</v>
+        <v>10024660</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>10042263</v>
+        <v>10005055</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>11000687</v>
+        <v>10016061</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>10156534</v>
+        <v>10003863</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -607,7 +607,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>10156534</v>
+        <v>10014493</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>10003352</v>
+        <v>10017265</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -635,22 +635,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10013578</v>
+        <v>10024660</v>
       </c>
       <c r="B11" s="10">
-        <v>404.5</v>
+        <v>543</v>
       </c>
       <c r="C11" s="10">
-        <v>40.450000000000003</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10">
-        <v>364.05</v>
+        <v>541</v>
       </c>
       <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>364.05</v>
+        <v>541</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10021733</v>
+        <v>10002298</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>10021733</v>
+        <v>10012776</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>10017013</v>
+        <v>10030337</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>10023071</v>
+        <v>10011403</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -701,30 +701,37 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>10008584</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+        <v>10024660</v>
+      </c>
+      <c r="B17" s="10">
+        <v>428</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>424</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>424</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>10017266</v>
+        <v>10024660</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -734,37 +741,30 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19"/>
+      <c r="A19" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>10017234</v>
-      </c>
-      <c r="B20" s="10">
-        <v>515.5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>51.55</v>
-      </c>
-      <c r="D20" s="10">
-        <v>463.95</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>463.95</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>10016061</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>10017234</v>
+        <v>10042249</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>10028783</v>
+        <v>14000119</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -785,30 +785,37 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+        <v>10024660</v>
+      </c>
+      <c r="B24" s="10">
+        <v>345</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>339</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>339</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>10033046</v>
+        <v>10024660</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -819,7 +826,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>10017266</v>
+        <v>10024660</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -830,7 +837,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>10017424</v>
+        <v>10023071</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -840,37 +847,30 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28"/>
+      <c r="A28" s="2">
+        <v>10017037</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10022683</v>
-      </c>
-      <c r="B29" s="10">
-        <v>409</v>
-      </c>
-      <c r="C29" s="10">
-        <v>40.9</v>
-      </c>
-      <c r="D29" s="10">
-        <v>368.1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>368.1</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>10017012</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>10028562</v>
+        <v>10008866</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>10019034</v>
+        <v>10156534</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>10017007</v>
+        <v>10017266</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -901,201 +901,32 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>10017265</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G24:G32"/>
     <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1105,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9196C9E5-F7A4-459D-A7DB-0D0FF28BD3EC}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,11 +2403,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="E82:E90"/>
-    <mergeCell ref="F82:F90"/>
     <mergeCell ref="G82:G90"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="C73:C80"/>
@@ -2584,11 +2410,11 @@
     <mergeCell ref="E73:E80"/>
     <mergeCell ref="F73:F80"/>
     <mergeCell ref="G73:G80"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="E82:E90"/>
+    <mergeCell ref="F82:F90"/>
     <mergeCell ref="G62:G71"/>
     <mergeCell ref="B51:B60"/>
     <mergeCell ref="C51:C60"/>
@@ -2596,11 +2422,11 @@
     <mergeCell ref="E51:E60"/>
     <mergeCell ref="F51:F60"/>
     <mergeCell ref="G51:G60"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:F49"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="F62:F71"/>
     <mergeCell ref="G40:G49"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C31:C38"/>
@@ -2608,11 +2434,11 @@
     <mergeCell ref="E31:E38"/>
     <mergeCell ref="F31:F38"/>
     <mergeCell ref="G31:G38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:F49"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
@@ -2620,23 +2446,28 @@
     <mergeCell ref="E11:E19"/>
     <mergeCell ref="F11:F19"/>
     <mergeCell ref="G11:G19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G2:G9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G2:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE53865-28EE-46CD-881F-9646B445FDFE}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A453DE-7A07-41CF-B3C9-CF6F11CDC3E3}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E24"/>
+      <selection activeCell="C35" sqref="C35:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2675,22 +2506,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>10031016</v>
+        <v>10213273</v>
       </c>
       <c r="B2" s="10">
-        <v>510.5</v>
+        <v>542.5</v>
       </c>
       <c r="C2" s="10">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D2" s="10">
-        <v>506.5</v>
+        <v>457.5</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
       </c>
       <c r="F2" s="10">
-        <v>506.5</v>
+        <v>457.5</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>8</v>
@@ -2698,7 +2529,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>10024660</v>
+        <v>10213273</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2709,7 +2540,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>10024660</v>
+        <v>10213273</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2720,7 +2551,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>10005055</v>
+        <v>10264065</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2731,7 +2562,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>10016061</v>
+        <v>10264065</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2742,7 +2573,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>10003863</v>
+        <v>10264065</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2753,7 +2584,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>10014493</v>
+        <v>10033046</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2764,7 +2595,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>10017265</v>
+        <v>10003352</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2781,30 +2612,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10024660</v>
+        <v>10213273</v>
       </c>
       <c r="B11" s="10">
-        <v>605.5</v>
+        <v>236</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>42.5</v>
       </c>
       <c r="D11" s="10">
-        <v>603.5</v>
+        <v>193.4</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="F11" s="10">
-        <v>603.5</v>
+        <v>228.4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10002298</v>
+        <v>10264065</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2815,7 +2646,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>10012776</v>
+        <v>10264065</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2826,7 +2657,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>10030337</v>
+        <v>10019034</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2837,7 +2668,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>10016769</v>
+        <v>11000392</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2848,7 +2679,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>10011403</v>
+        <v>10042249</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2865,30 +2696,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>10024660</v>
+        <v>10213273</v>
       </c>
       <c r="B18" s="10">
-        <v>453</v>
+        <v>233</v>
       </c>
       <c r="C18" s="10">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D18" s="10">
-        <v>449</v>
+        <v>148</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <v>449</v>
+        <v>148</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>10024660</v>
+        <v>10213273</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2899,7 +2730,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>10042263</v>
+        <v>10264065</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2910,7 +2741,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>10028783</v>
+        <v>10264065</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2921,7 +2752,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>10016061</v>
+        <v>10264065</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2932,7 +2763,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>10042249</v>
+        <v>10264065</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2943,7 +2774,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>14000119</v>
+        <v>10028540</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2953,48 +2784,48 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="2">
+        <v>10023224</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>10024660</v>
-      </c>
-      <c r="B26" s="10">
-        <v>337</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10">
-        <v>335</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>335</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>10023777</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+        <v>10213273</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1707</v>
+      </c>
+      <c r="C27" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1664.5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1664.5</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>10023071</v>
+        <v>10213273</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3005,7 +2836,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10017037</v>
+        <v>10264065</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3016,7 +2847,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>10017012</v>
+        <v>10264065</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3027,7 +2858,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>10008866</v>
+        <v>10264065</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3038,7 +2869,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>10156534</v>
+        <v>14000119</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3049,7 +2880,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>10017266</v>
+        <v>10019602</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3058,464 +2889,6 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="G26:G33"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A453DE-7A07-41CF-B3C9-CF6F11CDC3E3}">
-  <dimension ref="A1:G50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B2" s="10">
-        <v>542.5</v>
-      </c>
-      <c r="C2" s="10">
-        <v>85</v>
-      </c>
-      <c r="D2" s="10">
-        <v>457.5</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>457.5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>10003352</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B11" s="10">
-        <v>236</v>
-      </c>
-      <c r="C11" s="10">
-        <v>42.5</v>
-      </c>
-      <c r="D11" s="10">
-        <v>193.4</v>
-      </c>
-      <c r="E11" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F11" s="10">
-        <v>228.4</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>11000392</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>10042249</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B18" s="10">
-        <v>233</v>
-      </c>
-      <c r="C18" s="10">
-        <v>85</v>
-      </c>
-      <c r="D18" s="10">
-        <v>148</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>148</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>10028540</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>10023224</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1707</v>
-      </c>
-      <c r="C27" s="10">
-        <v>42.5</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1664.5</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1664.5</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10019602</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>1</v>
@@ -3612,116 +2985,68 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>10028166</v>
-      </c>
-      <c r="B43" s="10">
-        <v>718</v>
-      </c>
-      <c r="C43" s="10">
-        <v>42.5</v>
-      </c>
-      <c r="D43" s="10">
-        <v>675.5</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>675.5</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>10213273</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>10264065</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>10030337</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>10016769</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>10011403</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="30">
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G41"/>
-    <mergeCell ref="G43:G50"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
@@ -3750,22 +3075,17 @@
     <mergeCell ref="D35:D41"/>
     <mergeCell ref="E35:E41"/>
     <mergeCell ref="F35:F41"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
-  <dimension ref="A1:G51"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D182A1D-8086-4E1A-9CA8-A065F734B94D}">
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3804,22 +3124,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>10029055</v>
+        <v>10029636</v>
       </c>
       <c r="B2" s="10">
-        <v>459.5</v>
+        <v>845.25</v>
       </c>
       <c r="C2" s="10">
-        <v>93.5</v>
+        <v>417</v>
       </c>
       <c r="D2" s="10">
-        <v>366</v>
+        <v>428.25</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
       </c>
       <c r="F2" s="10">
-        <v>366</v>
+        <v>428.25</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>8</v>
@@ -3827,7 +3147,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>10016979</v>
+        <v>10029636</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3838,7 +3158,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>10016981</v>
+        <v>10029636</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3849,7 +3169,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>10017022</v>
+        <v>10033046</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3860,7 +3180,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>10015566</v>
+        <v>10033046</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3871,7 +3191,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>10015566</v>
+        <v>10033046</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3882,7 +3202,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>10033046</v>
+        <v>14000119</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3893,7 +3213,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>10017090</v>
+        <v>10017266</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3910,22 +3230,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10031016</v>
+        <v>10022979</v>
       </c>
       <c r="B11" s="10">
-        <v>254.5</v>
+        <v>453.5</v>
       </c>
       <c r="C11" s="10">
-        <v>93.5</v>
+        <v>278</v>
       </c>
       <c r="D11" s="10">
-        <v>161</v>
+        <v>175.5</v>
       </c>
       <c r="E11" s="10">
         <v>34.9</v>
       </c>
       <c r="F11" s="10">
-        <v>195.9</v>
+        <v>210.4</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>8</v>
@@ -3933,7 +3253,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10029055</v>
+        <v>10017037</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3944,7 +3264,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>10029055</v>
+        <v>10029636</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3955,7 +3275,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>10005052</v>
+        <v>10029636</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3966,7 +3286,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>10005052</v>
+        <v>10033046</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3977,7 +3297,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>10014863</v>
+        <v>10033046</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3987,59 +3307,59 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>10015566</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>10015566</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+        <v>10029052</v>
+      </c>
+      <c r="B18" s="10">
+        <v>302.75</v>
+      </c>
+      <c r="C18" s="10">
+        <v>139</v>
+      </c>
+      <c r="D18" s="10">
+        <v>163.75</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>163.75</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19"/>
+      <c r="A19" s="2">
+        <v>10021733</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>10006676</v>
-      </c>
-      <c r="B20" s="10">
-        <v>230.75</v>
-      </c>
-      <c r="C20" s="10">
-        <v>46.75</v>
-      </c>
-      <c r="D20" s="10">
-        <v>184</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>184</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>10022979</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>10005104</v>
+        <v>10023071</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4050,7 +3370,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>10029052</v>
+        <v>10029636</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4061,7 +3381,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>10005052</v>
+        <v>10033046</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4071,30 +3391,37 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>10022377</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>10014863</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+        <v>10019034</v>
+      </c>
+      <c r="B25" s="10">
+        <v>747.5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>278</v>
+      </c>
+      <c r="D25" s="10">
+        <v>469.5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>469.5</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>10015566</v>
+        <v>10029636</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4105,7 +3432,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>10008866</v>
+        <v>10029636</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4115,37 +3442,30 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28"/>
+      <c r="A28" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10021661</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1767</v>
-      </c>
-      <c r="C29" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1673.5</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1673.5</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>10033046</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>10002298</v>
+        <v>10013125</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4156,7 +3476,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>10015566</v>
+        <v>10016822</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4167,7 +3487,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>10015566</v>
+        <v>10008950</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4177,30 +3497,37 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10001399</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>10019602</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+        <v>10014862</v>
+      </c>
+      <c r="B34" s="10">
+        <v>379.5</v>
+      </c>
+      <c r="C34" s="10">
+        <v>139</v>
+      </c>
+      <c r="D34" s="10">
+        <v>240.5</v>
+      </c>
+      <c r="E34" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>10003352</v>
+        <v>10014866</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4210,697 +3537,8 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>10042263</v>
-      </c>
-      <c r="B37" s="10">
-        <v>261.75</v>
-      </c>
-      <c r="C37" s="10">
-        <v>46.75</v>
-      </c>
-      <c r="D37" s="10">
-        <v>215</v>
-      </c>
-      <c r="E37" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F37" s="10">
-        <v>249.9</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>10015790</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>10002298</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>10015566</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>10001399</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>10001399</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>10015566</v>
-      </c>
-      <c r="B44" s="10">
-        <v>2797.25</v>
-      </c>
-      <c r="C44" s="10">
-        <v>46.75</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2750.5</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>2750.5</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>10011403</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>10011355</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>10019602</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>10003352</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B475999E-C598-43F3-B6B7-DE13D39FAC7C}">
-  <dimension ref="A1:G48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10028166</v>
-      </c>
-      <c r="B2" s="10">
-        <v>576.5</v>
-      </c>
-      <c r="C2" s="10">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10">
-        <v>556.5</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>556.5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>10014866</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10017007</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10030337</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10023684</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10001400</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>10023194</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>10017266</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10024658</v>
-      </c>
-      <c r="B11" s="10">
-        <v>220.5</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10">
-        <v>210.5</v>
-      </c>
-      <c r="E11" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F11" s="10">
-        <v>245.4</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10024658</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10015247</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10003483</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>10001400</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>10023194</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>10023698</v>
-      </c>
-      <c r="B18" s="10">
-        <v>288.5</v>
-      </c>
-      <c r="C18" s="10">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10">
-        <v>278.5</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>278.5</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>10023698</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>10015247</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10018762</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10015179</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>10023190</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>10023190</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>10042263</v>
-      </c>
-      <c r="B27" s="10">
-        <v>724.5</v>
-      </c>
-      <c r="C27" s="10">
-        <v>30</v>
-      </c>
-      <c r="D27" s="10">
-        <v>694.5</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>694.5</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>10005051</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>10005051</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>10028783</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>10015188</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10011355</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>10016978</v>
-      </c>
-      <c r="B35" s="10">
-        <v>277.5</v>
-      </c>
-      <c r="C35" s="10">
-        <v>10</v>
-      </c>
-      <c r="D35" s="10">
-        <v>267.5</v>
-      </c>
-      <c r="E35" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F35" s="10">
-        <v>302.39999999999998</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>10016978</v>
+        <v>10029636</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4911,656 +3549,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>10028783</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>10000238</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>10016039</v>
-      </c>
-      <c r="B42" s="10">
-        <v>227.5</v>
-      </c>
-      <c r="C42" s="10">
-        <v>10</v>
-      </c>
-      <c r="D42" s="10">
-        <v>217.5</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>217.5</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>10016975</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>10016975</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>10016971</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>10016976</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>10011722</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>10000238</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="G42:G48"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D182A1D-8086-4E1A-9CA8-A065F734B94D}">
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
         <v>10029636</v>
-      </c>
-      <c r="B2" s="10">
-        <v>845.25</v>
-      </c>
-      <c r="C2" s="10">
-        <v>417</v>
-      </c>
-      <c r="D2" s="10">
-        <v>428.25</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>428.25</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>10017266</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10022979</v>
-      </c>
-      <c r="B11" s="10">
-        <v>453.5</v>
-      </c>
-      <c r="C11" s="10">
-        <v>278</v>
-      </c>
-      <c r="D11" s="10">
-        <v>175.5</v>
-      </c>
-      <c r="E11" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F11" s="10">
-        <v>210.4</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10017037</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>10029052</v>
-      </c>
-      <c r="B18" s="10">
-        <v>302.75</v>
-      </c>
-      <c r="C18" s="10">
-        <v>139</v>
-      </c>
-      <c r="D18" s="10">
-        <v>163.75</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>163.75</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>10021733</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>10022979</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10023071</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B25" s="10">
-        <v>747.5</v>
-      </c>
-      <c r="C25" s="10">
-        <v>278</v>
-      </c>
-      <c r="D25" s="10">
-        <v>469.5</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>469.5</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>10016822</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>10008950</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>10014862</v>
-      </c>
-      <c r="B34" s="10">
-        <v>379.5</v>
-      </c>
-      <c r="C34" s="10">
-        <v>139</v>
-      </c>
-      <c r="D34" s="10">
-        <v>240.5</v>
-      </c>
-      <c r="E34" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F34" s="10">
-        <v>275.39999999999998</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>10014866</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>10029646</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>10029646</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6054,12 +4043,2804 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
+  <dimension ref="A1:G84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B2" s="10">
+        <v>436.25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10">
+        <v>386.25</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>386.25</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10024660</v>
+      </c>
+      <c r="B11" s="10">
+        <v>284.25</v>
+      </c>
+      <c r="C11" s="10">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10">
+        <v>234.25</v>
+      </c>
+      <c r="E11" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F11" s="10">
+        <v>269.14999999999998</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10014737</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10003482</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>10029636</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B20" s="10">
+        <v>524.25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>25</v>
+      </c>
+      <c r="D20" s="10">
+        <v>499.25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>499.25</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>10028870</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>100155666</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B29" s="10">
+        <v>273</v>
+      </c>
+      <c r="C29" s="10">
+        <v>50</v>
+      </c>
+      <c r="D29" s="10">
+        <v>223</v>
+      </c>
+      <c r="E29" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F29" s="10">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10024660</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>10006676</v>
+      </c>
+      <c r="B36" s="10">
+        <v>439.5</v>
+      </c>
+      <c r="C36" s="10">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10">
+        <v>389.5</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>389.5</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>10017022</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>10017037</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>10017029</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>10029053</v>
+      </c>
+      <c r="B45" s="10">
+        <v>257</v>
+      </c>
+      <c r="C45" s="10">
+        <v>25</v>
+      </c>
+      <c r="D45" s="10">
+        <v>232</v>
+      </c>
+      <c r="E45" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F45" s="10">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>10016988</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>10017024</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>10005104</v>
+      </c>
+      <c r="B52" s="10">
+        <v>440.5</v>
+      </c>
+      <c r="C52" s="10">
+        <v>75</v>
+      </c>
+      <c r="D52" s="10">
+        <v>365.5</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <v>365.5</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>10039330</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>10008584</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B2" s="10">
+        <v>489</v>
+      </c>
+      <c r="C2" s="10">
+        <v>48.9</v>
+      </c>
+      <c r="D2" s="10">
+        <v>440.1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>440.1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>10024660</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>10156534</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10003352</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>10013578</v>
+      </c>
+      <c r="B10" s="10">
+        <v>404.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>364.05</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>364.05</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10021733</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10021733</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10017013</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10023071</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>10008584</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>10013125</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>10017234</v>
+      </c>
+      <c r="B19" s="10">
+        <v>515.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>51.55</v>
+      </c>
+      <c r="D19" s="10">
+        <v>463.95</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>463.95</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10017234</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>10017424</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>10022683</v>
+      </c>
+      <c r="B28" s="10">
+        <v>409</v>
+      </c>
+      <c r="C28" s="10">
+        <v>40.9</v>
+      </c>
+      <c r="D28" s="10">
+        <v>368.1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>368.1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10028562</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10017007</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>10013125</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>10017265</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10029055</v>
+      </c>
+      <c r="B2" s="10">
+        <v>459.5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>366</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>366</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>10016979</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>10016981</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>10017022</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>10017090</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B11" s="10">
+        <v>254.5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>161</v>
+      </c>
+      <c r="E11" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F11" s="10">
+        <v>195.9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10029055</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10029055</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10005052</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>10005052</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>10014863</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10006676</v>
+      </c>
+      <c r="B20" s="10">
+        <v>230.75</v>
+      </c>
+      <c r="C20" s="10">
+        <v>46.75</v>
+      </c>
+      <c r="D20" s="10">
+        <v>184</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>184</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>10005104</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>10029052</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10005052</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>10022377</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>10014863</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>10008866</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10021661</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1767</v>
+      </c>
+      <c r="C29" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1673.5</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1673.5</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10002298</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>10001399</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>10019602</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>10003352</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B37" s="10">
+        <v>281.75</v>
+      </c>
+      <c r="C37" s="10">
+        <v>46.75</v>
+      </c>
+      <c r="D37" s="10">
+        <v>235</v>
+      </c>
+      <c r="E37" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F37" s="10">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>10015790</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>10002298</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>10001399</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>10001399</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>10015566</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2797.25</v>
+      </c>
+      <c r="C44" s="10">
+        <v>46.75</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2750.5</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2750.5</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>10011403</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>14000119</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>14000119</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>10011355</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>10019602</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>10003352</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B475999E-C598-43F3-B6B7-DE13D39FAC7C}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10028166</v>
+      </c>
+      <c r="B2" s="10">
+        <v>576.5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10">
+        <v>556.5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>556.5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>10014866</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>10017007</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>10030337</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>10023684</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>10001400</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10023194</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10024658</v>
+      </c>
+      <c r="B11" s="10">
+        <v>220.5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>210.5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F11" s="10">
+        <v>245.4</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10024658</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10015247</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10003483</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>10001400</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>10023194</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>10023698</v>
+      </c>
+      <c r="B18" s="10">
+        <v>288.5</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>278.5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>278.5</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>10023698</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10015247</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>10018762</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10015179</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>10023190</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>10023190</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>10028166</v>
+      </c>
+      <c r="B27" s="10">
+        <v>766.5</v>
+      </c>
+      <c r="C27" s="10">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10">
+        <v>736.5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>736.5</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>10005051</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10005051</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10015188</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>14000119</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>10011355</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>10016978</v>
+      </c>
+      <c r="B35" s="10">
+        <v>277.5</v>
+      </c>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10">
+        <v>267.5</v>
+      </c>
+      <c r="E35" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="F35" s="10">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>10016978</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>10016039</v>
+      </c>
+      <c r="B42" s="10">
+        <v>227.5</v>
+      </c>
+      <c r="C42" s="10">
+        <v>10</v>
+      </c>
+      <c r="D42" s="10">
+        <v>217.5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>217.5</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>10016975</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>10016975</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>10016971</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>10016976</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>10011722</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="G42:G48"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C231B-3CCE-4E62-B407-0057105A1980}">
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="D11" sqref="D11:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7039,1062 +7820,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
-  <dimension ref="A1:G100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B2" s="10">
-        <v>436.25</v>
-      </c>
-      <c r="C2" s="10">
-        <v>50</v>
-      </c>
-      <c r="D2" s="10">
-        <v>386.25</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>386.25</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10028783</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10015566</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10024660</v>
-      </c>
-      <c r="B11" s="10">
-        <v>284.25</v>
-      </c>
-      <c r="C11" s="10">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10">
-        <v>234.25</v>
-      </c>
-      <c r="E11" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F11" s="10">
-        <v>269.14999999999998</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10014737</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10003482</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>10031016</v>
-      </c>
-      <c r="B20" s="10">
-        <v>660</v>
-      </c>
-      <c r="C20" s="10">
-        <v>50</v>
-      </c>
-      <c r="D20" s="10">
-        <v>610</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>610</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>10016769</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B29" s="10">
-        <v>524.25</v>
-      </c>
-      <c r="C29" s="10">
-        <v>25</v>
-      </c>
-      <c r="D29" s="10">
-        <v>499.25</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>499.25</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>10028870</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>100155666</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>10017266</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>10031016</v>
-      </c>
-      <c r="B38" s="10">
-        <v>273</v>
-      </c>
-      <c r="C38" s="10">
-        <v>50</v>
-      </c>
-      <c r="D38" s="10">
-        <v>223</v>
-      </c>
-      <c r="E38" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F38" s="10">
-        <v>257.89999999999998</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>10024660</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>10042263</v>
-      </c>
-      <c r="B45" s="10">
-        <v>298</v>
-      </c>
-      <c r="C45" s="10">
-        <v>25</v>
-      </c>
-      <c r="D45" s="10">
-        <v>273</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>273</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>10156534</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>10006676</v>
-      </c>
-      <c r="B52" s="10">
-        <v>439.5</v>
-      </c>
-      <c r="C52" s="10">
-        <v>50</v>
-      </c>
-      <c r="D52" s="10">
-        <v>389.5</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="10">
-        <v>389.5</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>10017022</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>10017037</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>10017029</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>10029053</v>
-      </c>
-      <c r="B61" s="10">
-        <v>257</v>
-      </c>
-      <c r="C61" s="10">
-        <v>25</v>
-      </c>
-      <c r="D61" s="10">
-        <v>232</v>
-      </c>
-      <c r="E61" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="F61" s="10">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>10016988</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
-        <v>10017024</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>10005104</v>
-      </c>
-      <c r="B68" s="10">
-        <v>440.5</v>
-      </c>
-      <c r="C68" s="10">
-        <v>75</v>
-      </c>
-      <c r="D68" s="10">
-        <v>365.5</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="10">
-        <v>365.5</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
-        <v>10039330</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
-        <v>10008584</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-    </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G61:G66"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="E61:E66"/>
-    <mergeCell ref="F61:F66"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32994263-25BE-40BB-935D-F1983009F224}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9342,11 +9073,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="G26:G33"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G8:G10"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G74:G81"/>
     <mergeCell ref="G67:G72"/>
@@ -9354,6 +9080,11 @@
     <mergeCell ref="G53:G56"/>
     <mergeCell ref="G49:G51"/>
     <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G26:G33"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="F53:F56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="D53:D56"/>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engk01tr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{476C50E3-1AF3-44B8-90EB-7D8DF79DEF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827B8C9-3D78-4A09-A1FB-67432E2F6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="900" yWindow="1250" windowWidth="14860" windowHeight="8950" firstSheet="4" activeTab="7" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -168,10 +168,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE53865-28EE-46CD-881F-9646B445FDFE}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,6 +903,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="G2:G9"/>
@@ -919,14 +927,6 @@
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9196C9E5-F7A4-459D-A7DB-0D0FF28BD3EC}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,10 +981,10 @@
       <c r="B2" s="10">
         <v>344</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>20</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>324</v>
       </c>
       <c r="E2" s="10">
@@ -1002,8 +1002,8 @@
         <v>11000392</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1013,8 +1013,8 @@
         <v>11000392</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1024,8 +1024,8 @@
         <v>11000392</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1035,8 +1035,8 @@
         <v>10042249</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1046,8 +1046,8 @@
         <v>10042249</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1057,8 +1057,8 @@
         <v>10042249</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1068,8 +1068,8 @@
         <v>10042249</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1092,10 +1092,10 @@
       <c r="B11" s="10">
         <v>270.25</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>20.6</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>249.65</v>
       </c>
       <c r="E11" s="10">
@@ -1113,8 +1113,8 @@
         <v>10029636</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1124,8 +1124,8 @@
         <v>11000392</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1135,8 +1135,8 @@
         <v>11000392</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1146,8 +1146,8 @@
         <v>11000392</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1157,8 +1157,8 @@
         <v>11000392</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1168,8 +1168,8 @@
         <v>10042249</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1179,8 +1179,8 @@
         <v>10042249</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1190,8 +1190,8 @@
         <v>10042249</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -2403,6 +2403,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:F49"/>
+    <mergeCell ref="G62:G71"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D60"/>
+    <mergeCell ref="E51:E60"/>
+    <mergeCell ref="F51:F60"/>
+    <mergeCell ref="G51:G60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="F62:F71"/>
     <mergeCell ref="G82:G90"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="C73:C80"/>
@@ -2415,48 +2457,6 @@
     <mergeCell ref="D82:D90"/>
     <mergeCell ref="E82:E90"/>
     <mergeCell ref="F82:F90"/>
-    <mergeCell ref="G62:G71"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="D51:D60"/>
-    <mergeCell ref="E51:E60"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="G51:G60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:F49"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C41"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2621,7 +2621,7 @@
         <v>42.5</v>
       </c>
       <c r="D11" s="10">
-        <v>193.4</v>
+        <v>193.5</v>
       </c>
       <c r="E11" s="10">
         <v>34.9</v>
@@ -3045,36 +3045,36 @@
     <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G41"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D182A1D-8086-4E1A-9CA8-A065F734B94D}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D16"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3984,11 +3984,39 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
     <mergeCell ref="G66:G73"/>
     <mergeCell ref="G25:G32"/>
     <mergeCell ref="G34:G39"/>
@@ -4005,39 +4033,11 @@
     <mergeCell ref="F11:F16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G58:G64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>100155666</v>
+        <v>10015566</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4844,11 +4844,31 @@
     <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="B2:B9"/>
@@ -4861,31 +4881,11 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G29:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4895,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5475,6 +5475,14 @@
     <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
     <mergeCell ref="G19:G26"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G2:G8"/>
@@ -5491,14 +5499,6 @@
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5508,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6145,42 +6145,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
     <mergeCell ref="G29:G35"/>
     <mergeCell ref="G37:G42"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="G20:G27"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6190,8 +6190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B475999E-C598-43F3-B6B7-DE13D39FAC7C}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6794,42 +6794,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="G42:G48"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6839,8 +6839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C231B-3CCE-4E62-B407-0057105A1980}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6985,22 +6985,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10014737</v>
+        <v>10031016</v>
       </c>
       <c r="B11" s="10">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C11" s="10">
         <v>136</v>
       </c>
       <c r="D11" s="10">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="E11" s="10">
         <v>34.9</v>
       </c>
       <c r="F11" s="10">
-        <v>323.89999999999998</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>8</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10005051</v>
+        <v>10014737</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>10023224</v>
+        <v>10005051</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>11001420</v>
+        <v>10023224</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>10019648</v>
+        <v>11001420</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>10063737</v>
+        <v>10019648</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -7761,60 +7761,60 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
     <mergeCell ref="G52:G58"/>
     <mergeCell ref="G60:G66"/>
     <mergeCell ref="G68:G75"/>
     <mergeCell ref="G29:G36"/>
     <mergeCell ref="G38:G43"/>
     <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7824,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32994263-25BE-40BB-935D-F1983009F224}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7869,10 +7869,10 @@
       <c r="B2" s="10">
         <v>382</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>35.549999999999997</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>346.45</v>
       </c>
       <c r="E2" s="10">
@@ -7890,8 +7890,8 @@
         <v>10018762</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -7901,8 +7901,8 @@
         <v>10003482</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -7912,8 +7912,8 @@
         <v>10003450</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -7923,8 +7923,8 @@
         <v>13000295</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -7947,10 +7947,10 @@
       <c r="B8" s="10">
         <v>326.5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>31.15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>295.35000000000002</v>
       </c>
       <c r="E8" s="10">
@@ -7968,8 +7968,8 @@
         <v>10015790</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -7979,8 +7979,8 @@
         <v>13000295</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -9073,6 +9073,66 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="F74:F81"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G74:G81"/>
     <mergeCell ref="G67:G72"/>
@@ -9085,66 +9145,6 @@
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="F74:F81"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engk01tr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gratisit-my.sharepoint.com/personal/engk01tr_gratis_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827B8C9-3D78-4A09-A1FB-67432E2F6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B83E662-4985-4225-BB27-8FDE1DEA5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1250" windowWidth="14860" windowHeight="8950" firstSheet="4" activeTab="7" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
-    <sheet name="1023110231" sheetId="10" r:id="rId2"/>
-    <sheet name="1022410224" sheetId="7" r:id="rId3"/>
-    <sheet name="1023610236" sheetId="12" r:id="rId4"/>
-    <sheet name="1022510225" sheetId="8" r:id="rId5"/>
+    <sheet name="1022510225" sheetId="8" r:id="rId2"/>
+    <sheet name="1023110231" sheetId="10" r:id="rId3"/>
+    <sheet name="1022410224" sheetId="7" r:id="rId4"/>
+    <sheet name="1023610236" sheetId="12" r:id="rId5"/>
     <sheet name="1022210222" sheetId="4" r:id="rId6"/>
     <sheet name="1022110221" sheetId="3" r:id="rId7"/>
     <sheet name="1022610226" sheetId="9" r:id="rId8"/>
     <sheet name="1022910229" sheetId="13" r:id="rId9"/>
     <sheet name="1022010220" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,12 +50,6 @@
     <t>Ürün Kodu</t>
   </si>
   <si>
-    <t>YS</t>
-  </si>
-  <si>
-    <t>Kargo Tutarı</t>
-  </si>
-  <si>
     <t>Ürün Fiyatı Toplamı</t>
   </si>
   <si>
@@ -63,6 +57,9 @@
   </si>
   <si>
     <t>Sipariş Tutarı</t>
+  </si>
+  <si>
+    <t>Kargo Tutarı</t>
   </si>
   <si>
     <t>Toplam Ödenecek Tutarı</t>
@@ -74,6 +71,9 @@
     <t>AT</t>
   </si>
   <si>
+    <t>YS</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
 </sst>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -337,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,45 +489,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE53865-28EE-46CD-881F-9646B445FDFE}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10031016</v>
       </c>
@@ -547,10 +547,10 @@
         <v>506.5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10024660</v>
       </c>
@@ -561,7 +561,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10024660</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10005055</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10016061</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10003863</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10014493</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017265</v>
       </c>
@@ -627,13 +627,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024660</v>
       </c>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10002298</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10012776</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10030337</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10011403</v>
       </c>
@@ -700,13 +700,13 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10024660</v>
       </c>
@@ -726,10 +726,10 @@
         <v>424</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10024660</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10028783</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10016061</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10042249</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>14000119</v>
       </c>
@@ -784,36 +784,36 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>10024660</v>
+        <v>10031016</v>
       </c>
       <c r="B24" s="10">
-        <v>345</v>
+        <v>483.9</v>
       </c>
       <c r="C24" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="10">
-        <v>339</v>
+        <v>481.9</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
       <c r="F24" s="10">
-        <v>339</v>
+        <v>481.9</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10024660</v>
       </c>
@@ -824,9 +824,9 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>10024660</v>
+        <v>10062710</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -835,7 +835,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10023071</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10017037</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10017012</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10008866</v>
       </c>
@@ -879,9 +879,9 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>10156534</v>
+        <v>10017266</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -890,7 +890,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10017266</v>
       </c>
@@ -940,41 +940,41 @@
       <selection activeCell="E11" sqref="E11:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>10033046</v>
       </c>
@@ -994,10 +994,10 @@
         <v>324</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>11000392</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>11000392</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>11000392</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>10042249</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>10042249</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>10042249</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>10042249</v>
       </c>
@@ -1074,9 +1074,9 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
@@ -1085,7 +1085,7 @@
       <c r="F10" s="1"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="6">
         <v>11000146</v>
       </c>
@@ -1105,10 +1105,10 @@
         <v>284.55</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="6">
         <v>10029636</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="6">
         <v>11000392</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="6">
         <v>11000392</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="6">
         <v>11000392</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="6">
         <v>11000392</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="6">
         <v>10042249</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="6">
         <v>10042249</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="6">
         <v>10042249</v>
       </c>
@@ -1196,13 +1196,13 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10031016</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>11000392</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>11000392</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>11000392</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>11000392</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10042249</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10042249</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10042249</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10042249</v>
       </c>
@@ -1313,13 +1313,13 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>11000392</v>
       </c>
@@ -1339,10 +1339,10 @@
         <v>515.5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>11000392</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>11000392</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10042249</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10042249</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10042249</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10042249</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10011403</v>
       </c>
@@ -1419,13 +1419,13 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10024660</v>
       </c>
@@ -1445,10 +1445,10 @@
         <v>299.7</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10033450</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>11000392</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>11000392</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>11000392</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>11000392</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10042249</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10042249</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10042249</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10042249</v>
       </c>
@@ -1547,13 +1547,13 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>10002299</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10002298</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10002300</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>11000392</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>11000392</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>11000392</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>10042249</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10042249</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10042249</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10042249</v>
       </c>
@@ -1675,13 +1675,13 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10028166</v>
       </c>
@@ -1701,10 +1701,10 @@
         <v>424.5</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>10017642</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10030337</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>11000392</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>11000392</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>11000392</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10042249</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10042249</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10042249</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10042249</v>
       </c>
@@ -1803,13 +1803,13 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>11000392</v>
       </c>
@@ -1829,10 +1829,10 @@
         <v>277.89999999999998</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>11000392</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>11000392</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>10042249</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>10042249</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>10042249</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>10042249</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>10001400</v>
       </c>
@@ -1909,13 +1909,13 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>10013125</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>10013125</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>11000392</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>11000392</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>11000392</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>10042249</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>10042249</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>10042249</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>10042249</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -2035,7 +2035,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -2044,7 +2044,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -2053,7 +2053,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -2062,7 +2062,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -2071,7 +2071,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -2080,199 +2080,199 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+    <row r="131" customFormat="1"/>
+    <row r="132" customFormat="1"/>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+    <row r="204" customFormat="1"/>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1"/>
+    <row r="208" customFormat="1"/>
+    <row r="209" customFormat="1"/>
+    <row r="210" customFormat="1"/>
+    <row r="211" customFormat="1"/>
+    <row r="212" customFormat="1"/>
+    <row r="213" customFormat="1"/>
+    <row r="214" customFormat="1"/>
+    <row r="215" customFormat="1"/>
+    <row r="216" customFormat="1"/>
+    <row r="217" customFormat="1"/>
+    <row r="218" customFormat="1"/>
+    <row r="219" customFormat="1"/>
+    <row r="220" customFormat="1"/>
+    <row r="221" customFormat="1"/>
+    <row r="222" customFormat="1"/>
+    <row r="223" customFormat="1"/>
+    <row r="224" customFormat="1"/>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" spans="1:7">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -2281,7 +2281,7 @@
       <c r="F289"/>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -2290,7 +2290,7 @@
       <c r="F290"/>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -2299,7 +2299,7 @@
       <c r="F291"/>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -2308,7 +2308,7 @@
       <c r="F292"/>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -2317,7 +2317,7 @@
       <c r="F293"/>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -2326,7 +2326,7 @@
       <c r="F294"/>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -2335,7 +2335,7 @@
       <c r="F295"/>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -2344,7 +2344,7 @@
       <c r="F296"/>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -2353,7 +2353,7 @@
       <c r="F297"/>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -2362,7 +2362,7 @@
       <c r="F298"/>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -2371,7 +2371,7 @@
       <c r="F299"/>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -2380,7 +2380,7 @@
       <c r="F300"/>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -2389,16 +2389,16 @@
       <c r="F301"/>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7">
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7">
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7">
       <c r="G304"/>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="7:7">
       <c r="G305"/>
     </row>
   </sheetData>
@@ -2463,6 +2463,619 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B2" s="10">
+        <v>502.25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>50.22</v>
+      </c>
+      <c r="D2" s="10">
+        <v>452.03</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>452.03</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>10022683</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>10024660</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>10000238</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>10003352</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>10013578</v>
+      </c>
+      <c r="B10" s="10">
+        <v>404.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>364.05</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>364.05</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10021733</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>10021733</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>10017013</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>10023071</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>10008584</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>10013125</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>10017234</v>
+      </c>
+      <c r="B19" s="10">
+        <v>515.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>51.55</v>
+      </c>
+      <c r="D19" s="10">
+        <v>463.95</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>463.95</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>10017234</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>10028783</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>11000687</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>10017424</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>10022683</v>
+      </c>
+      <c r="B28" s="10">
+        <v>409</v>
+      </c>
+      <c r="C28" s="10">
+        <v>40.9</v>
+      </c>
+      <c r="D28" s="10">
+        <v>368.1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>368.1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>10028562</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>10017007</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>10013125</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>10017265</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A453DE-7A07-41CF-B3C9-CF6F11CDC3E3}">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -2470,41 +3083,41 @@
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10213273</v>
       </c>
@@ -2524,10 +3137,10 @@
         <v>457.5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10213273</v>
       </c>
@@ -2538,7 +3151,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10213273</v>
       </c>
@@ -2549,7 +3162,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10264065</v>
       </c>
@@ -2560,7 +3173,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10264065</v>
       </c>
@@ -2571,7 +3184,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10264065</v>
       </c>
@@ -2582,7 +3195,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10033046</v>
       </c>
@@ -2593,7 +3206,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003352</v>
       </c>
@@ -2604,13 +3217,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10213273</v>
       </c>
@@ -2630,10 +3243,10 @@
         <v>228.4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10264065</v>
       </c>
@@ -2644,7 +3257,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10264065</v>
       </c>
@@ -2655,7 +3268,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10019034</v>
       </c>
@@ -2666,7 +3279,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11000392</v>
       </c>
@@ -2677,7 +3290,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10042249</v>
       </c>
@@ -2688,13 +3301,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10213273</v>
       </c>
@@ -2717,7 +3330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10213273</v>
       </c>
@@ -2728,7 +3341,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10264065</v>
       </c>
@@ -2739,7 +3352,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10264065</v>
       </c>
@@ -2750,7 +3363,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10264065</v>
       </c>
@@ -2761,7 +3374,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10264065</v>
       </c>
@@ -2772,7 +3385,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10028540</v>
       </c>
@@ -2783,7 +3396,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10023224</v>
       </c>
@@ -2794,13 +3407,13 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10213273</v>
       </c>
@@ -2820,10 +3433,10 @@
         <v>1664.5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10213273</v>
       </c>
@@ -2834,7 +3447,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10264065</v>
       </c>
@@ -2845,7 +3458,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10264065</v>
       </c>
@@ -2856,7 +3469,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10264065</v>
       </c>
@@ -2867,7 +3480,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>14000119</v>
       </c>
@@ -2878,7 +3491,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10019602</v>
       </c>
@@ -2889,13 +3502,13 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10031016</v>
       </c>
@@ -2915,10 +3528,10 @@
         <v>194.4</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10213273</v>
       </c>
@@ -2929,7 +3542,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10213273</v>
       </c>
@@ -2940,7 +3553,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10213273</v>
       </c>
@@ -2951,7 +3564,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10264065</v>
       </c>
@@ -2962,7 +3575,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10264065</v>
       </c>
@@ -2973,7 +3586,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10264065</v>
       </c>
@@ -2984,10 +3597,10 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2996,7 +3609,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3005,7 +3618,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3014,7 +3627,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3023,7 +3636,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3032,7 +3645,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3041,8 +3654,8 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="B35:B41"/>
@@ -3080,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D182A1D-8086-4E1A-9CA8-A065F734B94D}">
   <dimension ref="A1:G73"/>
   <sheetViews>
@@ -3088,41 +3701,41 @@
       <selection activeCell="C66" sqref="C66:C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10029636</v>
       </c>
@@ -3142,10 +3755,10 @@
         <v>428.25</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10029636</v>
       </c>
@@ -3156,7 +3769,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10029636</v>
       </c>
@@ -3167,7 +3780,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10033046</v>
       </c>
@@ -3178,7 +3791,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10033046</v>
       </c>
@@ -3189,7 +3802,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10033046</v>
       </c>
@@ -3200,7 +3813,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>14000119</v>
       </c>
@@ -3211,7 +3824,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017266</v>
       </c>
@@ -3222,13 +3835,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10022979</v>
       </c>
@@ -3248,10 +3861,10 @@
         <v>210.4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10017037</v>
       </c>
@@ -3262,7 +3875,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10029636</v>
       </c>
@@ -3273,7 +3886,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10029636</v>
       </c>
@@ -3284,7 +3897,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10033046</v>
       </c>
@@ -3295,7 +3908,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10033046</v>
       </c>
@@ -3306,13 +3919,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10029052</v>
       </c>
@@ -3335,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10021733</v>
       </c>
@@ -3346,7 +3959,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10022979</v>
       </c>
@@ -3357,7 +3970,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10023071</v>
       </c>
@@ -3368,7 +3981,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10029636</v>
       </c>
@@ -3379,7 +3992,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10033046</v>
       </c>
@@ -3390,13 +4003,13 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10019034</v>
       </c>
@@ -3416,10 +4029,10 @@
         <v>469.5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10029636</v>
       </c>
@@ -3430,7 +4043,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10029636</v>
       </c>
@@ -3441,7 +4054,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10033046</v>
       </c>
@@ -3452,7 +4065,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10033046</v>
       </c>
@@ -3463,7 +4076,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10013125</v>
       </c>
@@ -3474,7 +4087,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10016822</v>
       </c>
@@ -3485,7 +4098,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10008950</v>
       </c>
@@ -3496,13 +4109,13 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10014862</v>
       </c>
@@ -3522,10 +4135,10 @@
         <v>275.39999999999998</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10014866</v>
       </c>
@@ -3536,7 +4149,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10029636</v>
       </c>
@@ -3547,7 +4160,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10029636</v>
       </c>
@@ -3558,7 +4171,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10033046</v>
       </c>
@@ -3569,7 +4182,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10013125</v>
       </c>
@@ -3580,13 +4193,13 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10011829</v>
       </c>
@@ -3609,7 +4222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10029636</v>
       </c>
@@ -3620,7 +4233,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>10029636</v>
       </c>
@@ -3631,7 +4244,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
@@ -3642,7 +4255,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10030337</v>
       </c>
@@ -3653,7 +4266,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10033046</v>
       </c>
@@ -3664,7 +4277,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10033046</v>
       </c>
@@ -3675,7 +4288,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10033046</v>
       </c>
@@ -3686,13 +4299,13 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10017580</v>
       </c>
@@ -3712,10 +4325,10 @@
         <v>354</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>10019995</v>
       </c>
@@ -3726,7 +4339,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10029636</v>
       </c>
@@ -3737,7 +4350,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10029636</v>
       </c>
@@ -3748,7 +4361,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10033046</v>
       </c>
@@ -3759,7 +4372,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10033046</v>
       </c>
@@ -3770,7 +4383,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10033046</v>
       </c>
@@ -3781,13 +4394,13 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10028540</v>
       </c>
@@ -3807,10 +4420,10 @@
         <v>306.89999999999998</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>11000146</v>
       </c>
@@ -3821,7 +4434,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10028863</v>
       </c>
@@ -3832,7 +4445,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>10019996</v>
       </c>
@@ -3843,7 +4456,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10029636</v>
       </c>
@@ -3854,7 +4467,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>10029636</v>
       </c>
@@ -3865,7 +4478,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10033046</v>
       </c>
@@ -3876,13 +4489,13 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>10028166</v>
       </c>
@@ -3905,7 +4518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>10031016</v>
       </c>
@@ -3916,7 +4529,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10028540</v>
       </c>
@@ -3927,7 +4540,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10029636</v>
       </c>
@@ -3938,7 +4551,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10029636</v>
       </c>
@@ -3949,7 +4562,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10030337</v>
       </c>
@@ -3960,7 +4573,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>10033046</v>
       </c>
@@ -3971,7 +4584,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>10033046</v>
       </c>
@@ -4043,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
   <dimension ref="A1:G84"/>
   <sheetViews>
@@ -4051,41 +4664,41 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10039330</v>
       </c>
@@ -4105,10 +4718,10 @@
         <v>386.25</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10039330</v>
       </c>
@@ -4119,7 +4732,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10028783</v>
       </c>
@@ -4130,7 +4743,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>11000687</v>
       </c>
@@ -4141,7 +4754,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>11000687</v>
       </c>
@@ -4152,7 +4765,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10015566</v>
       </c>
@@ -4163,7 +4776,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10003450</v>
       </c>
@@ -4174,7 +4787,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003450</v>
       </c>
@@ -4185,13 +4798,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024660</v>
       </c>
@@ -4211,10 +4824,10 @@
         <v>269.14999999999998</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10014737</v>
       </c>
@@ -4225,7 +4838,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10003482</v>
       </c>
@@ -4236,7 +4849,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10039330</v>
       </c>
@@ -4247,7 +4860,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10039330</v>
       </c>
@@ -4258,7 +4871,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>11000687</v>
       </c>
@@ -4269,7 +4882,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>11000687</v>
       </c>
@@ -4280,7 +4893,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10029636</v>
       </c>
@@ -4291,13 +4904,13 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10039330</v>
       </c>
@@ -4317,10 +4930,10 @@
         <v>499.25</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10028870</v>
       </c>
@@ -4331,7 +4944,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>11000687</v>
       </c>
@@ -4342,7 +4955,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>11000687</v>
       </c>
@@ -4353,7 +4966,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10019034</v>
       </c>
@@ -4364,7 +4977,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10015566</v>
       </c>
@@ -4375,7 +4988,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10003450</v>
       </c>
@@ -4386,7 +4999,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10017266</v>
       </c>
@@ -4397,13 +5010,13 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10031016</v>
       </c>
@@ -4423,10 +5036,10 @@
         <v>257.89999999999998</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10024660</v>
       </c>
@@ -4437,7 +5050,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10039330</v>
       </c>
@@ -4448,7 +5061,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10039330</v>
       </c>
@@ -4459,7 +5072,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>11000687</v>
       </c>
@@ -4470,7 +5083,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>11000687</v>
       </c>
@@ -4481,13 +5094,13 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10006676</v>
       </c>
@@ -4507,10 +5120,10 @@
         <v>389.5</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10039330</v>
       </c>
@@ -4521,7 +5134,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10039330</v>
       </c>
@@ -4532,7 +5145,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>11000687</v>
       </c>
@@ -4543,7 +5156,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>11000687</v>
       </c>
@@ -4554,7 +5167,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10017022</v>
       </c>
@@ -4565,7 +5178,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10017037</v>
       </c>
@@ -4576,7 +5189,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>10017029</v>
       </c>
@@ -4587,13 +5200,13 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10029053</v>
       </c>
@@ -4613,10 +5226,10 @@
         <v>266.89999999999998</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10016988</v>
       </c>
@@ -4627,7 +5240,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10039330</v>
       </c>
@@ -4638,7 +5251,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>11000687</v>
       </c>
@@ -4649,7 +5262,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>11000687</v>
       </c>
@@ -4660,7 +5273,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10017024</v>
       </c>
@@ -4671,13 +5284,13 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10005104</v>
       </c>
@@ -4700,7 +5313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10039330</v>
       </c>
@@ -4711,7 +5324,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10039330</v>
       </c>
@@ -4722,7 +5335,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10039330</v>
       </c>
@@ -4733,7 +5346,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>11000687</v>
       </c>
@@ -4744,7 +5357,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>11000687</v>
       </c>
@@ -4755,7 +5368,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>11000687</v>
       </c>
@@ -4766,7 +5379,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10008584</v>
       </c>
@@ -4777,7 +5390,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4786,7 +5399,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4795,7 +5408,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4804,7 +5417,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -4813,7 +5426,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4822,26 +5435,26 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="B52:B59"/>
@@ -4891,619 +5504,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
-  <dimension ref="A1:G68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10031016</v>
-      </c>
-      <c r="B2" s="10">
-        <v>489</v>
-      </c>
-      <c r="C2" s="10">
-        <v>48.9</v>
-      </c>
-      <c r="D2" s="10">
-        <v>440.1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>440.1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>10024660</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10000238</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10000238</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10156534</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>10003352</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>10013578</v>
-      </c>
-      <c r="B10" s="10">
-        <v>404.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>40.450000000000003</v>
-      </c>
-      <c r="D10" s="10">
-        <v>364.05</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>364.05</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10021733</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10021733</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10017013</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10023071</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>10008584</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>10017266</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>10017234</v>
-      </c>
-      <c r="B19" s="10">
-        <v>515.5</v>
-      </c>
-      <c r="C19" s="10">
-        <v>51.55</v>
-      </c>
-      <c r="D19" s="10">
-        <v>463.95</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>463.95</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>10017234</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10028783</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>11000687</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>10017266</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>10017424</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>10022683</v>
-      </c>
-      <c r="B28" s="10">
-        <v>409</v>
-      </c>
-      <c r="C28" s="10">
-        <v>40.9</v>
-      </c>
-      <c r="D28" s="10">
-        <v>368.1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>368.1</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>10028562</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>10017007</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>10013125</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>10017265</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G19:G26"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
   <dimension ref="A1:G51"/>
@@ -5512,41 +5512,41 @@
       <selection activeCell="E44" sqref="E44:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10029055</v>
       </c>
@@ -5566,10 +5566,10 @@
         <v>366</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10016979</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10016981</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10017022</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10015566</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10015566</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10033046</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017090</v>
       </c>
@@ -5646,13 +5646,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10031016</v>
       </c>
@@ -5672,10 +5672,10 @@
         <v>195.9</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10029055</v>
       </c>
@@ -5686,7 +5686,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10029055</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10005052</v>
       </c>
@@ -5708,7 +5708,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10005052</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10014863</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10015566</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10015566</v>
       </c>
@@ -5752,13 +5752,13 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10006676</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10005104</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10029052</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10005052</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10022377</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10014863</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10015566</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10008866</v>
       </c>
@@ -5858,13 +5858,13 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10021661</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>1673.5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10002298</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10015566</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10015566</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10001399</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10019602</v>
       </c>
@@ -5942,7 +5942,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10003352</v>
       </c>
@@ -5953,13 +5953,13 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10031016</v>
       </c>
@@ -5979,10 +5979,10 @@
         <v>269.89999999999998</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10015790</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10002298</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10015566</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10001399</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10001399</v>
       </c>
@@ -6037,13 +6037,13 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10015566</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10033046</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10011403</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>14000119</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>14000119</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10011355</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10019602</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>10003352</v>
       </c>
@@ -6194,41 +6194,41 @@
       <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10028166</v>
       </c>
@@ -6248,10 +6248,10 @@
         <v>556.5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10014866</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10017007</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>10030337</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10023684</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10001400</v>
       </c>
@@ -6306,7 +6306,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10023194</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017266</v>
       </c>
@@ -6328,13 +6328,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024658</v>
       </c>
@@ -6354,10 +6354,10 @@
         <v>245.4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>10024658</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10015247</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10003483</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10001400</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10023194</v>
       </c>
@@ -6412,13 +6412,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10023698</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10023698</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10015247</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10018762</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10003450</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10015179</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10023190</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10023190</v>
       </c>
@@ -6518,13 +6518,13 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10028166</v>
       </c>
@@ -6544,10 +6544,10 @@
         <v>736.5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10005051</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10005051</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10028783</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10015188</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>14000119</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10011355</v>
       </c>
@@ -6613,13 +6613,13 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10016978</v>
       </c>
@@ -6639,10 +6639,10 @@
         <v>302.39999999999998</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10016978</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10028783</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10000238</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10003450</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10003450</v>
       </c>
@@ -6697,13 +6697,13 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10016039</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>10016975</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10016975</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10016971</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10016976</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10011722</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10000238</v>
       </c>
@@ -6839,45 +6839,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C231B-3CCE-4E62-B407-0057105A1980}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10005051</v>
       </c>
@@ -6897,10 +6897,10 @@
         <v>587</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10016988</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>11001420</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10019648</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10017007</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10015179</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10013125</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003863</v>
       </c>
@@ -6977,13 +6977,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10031016</v>
       </c>
@@ -7003,10 +7003,10 @@
         <v>286.89999999999998</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10014737</v>
       </c>
@@ -7017,7 +7017,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10005051</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10023224</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11001420</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>11001420</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10019648</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10019648</v>
       </c>
@@ -7083,13 +7083,13 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10024660</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10003480</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>11001420</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10019648</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10019648</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10003450</v>
       </c>
@@ -7167,7 +7167,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10026899</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10023116</v>
       </c>
@@ -7189,13 +7189,13 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>11001420</v>
       </c>
@@ -7215,10 +7215,10 @@
         <v>320</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>11001420</v>
       </c>
@@ -7229,7 +7229,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>11001420</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>11001420</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10019648</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10019648</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10019648</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10019648</v>
       </c>
@@ -7295,13 +7295,13 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10024659</v>
       </c>
@@ -7321,10 +7321,10 @@
         <v>176.4</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10003482</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10003480</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10001720</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>11001420</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>11001420</v>
       </c>
@@ -7379,13 +7379,13 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10023224</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10021677</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>11001420</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10019648</v>
       </c>
@@ -7441,7 +7441,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10019648</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10019648</v>
       </c>
@@ -7463,13 +7463,13 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>11001420</v>
       </c>
@@ -7489,10 +7489,10 @@
         <v>1693.5</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>11001420</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10019648</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10019648</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10030337</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>10023684</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10019602</v>
       </c>
@@ -7558,13 +7558,13 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10017667</v>
       </c>
@@ -7584,10 +7584,10 @@
         <v>294.89999999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>11001420</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>11001420</v>
       </c>
@@ -7609,7 +7609,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>11001420</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10019648</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>10019648</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>10019648</v>
       </c>
@@ -7653,13 +7653,13 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10024660</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10029055</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10023698</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10014737</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>10015790</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>11001420</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>10019648</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>10004378</v>
       </c>
@@ -7803,18 +7803,18 @@
     <mergeCell ref="D20:D27"/>
     <mergeCell ref="E20:E27"/>
     <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
     <mergeCell ref="G52:G58"/>
     <mergeCell ref="G60:G66"/>
     <mergeCell ref="G68:G75"/>
     <mergeCell ref="G29:G36"/>
     <mergeCell ref="G38:G43"/>
     <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7828,41 +7828,41 @@
       <selection activeCell="E74" sqref="E74:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>10023698</v>
       </c>
@@ -7882,10 +7882,10 @@
         <v>346.45</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>10018762</v>
       </c>
@@ -7896,7 +7896,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>10003482</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>10003450</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>13000295</v>
       </c>
@@ -7929,9 +7929,9 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
@@ -7940,7 +7940,7 @@
       <c r="F7" s="1"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="6">
         <v>10018762</v>
       </c>
@@ -7960,10 +7960,10 @@
         <v>330.25</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="6">
         <v>10015790</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="6">
         <v>13000295</v>
       </c>
@@ -7985,13 +7985,13 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10003480</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10017642</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10003450</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>13000295</v>
       </c>
@@ -8047,13 +8047,13 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10015247</v>
       </c>
@@ -8073,10 +8073,10 @@
         <v>800.4</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10017003</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10003450</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10003450</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>13000295</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>13000295</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10023194</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10023190</v>
       </c>
@@ -8153,13 +8153,13 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10015790</v>
       </c>
@@ -8179,10 +8179,10 @@
         <v>532.04999999999995</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10014865</v>
       </c>
@@ -8193,7 +8193,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10028563</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10004378</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10003450</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10003450</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>13000295</v>
       </c>
@@ -8248,7 +8248,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10015188</v>
       </c>
@@ -8259,13 +8259,13 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10028783</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10019034</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10003450</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10003450</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>13000295</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>13000295</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>13000295</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>14000119</v>
       </c>
@@ -8365,13 +8365,13 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
@@ -8391,10 +8391,10 @@
         <v>500.7</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10033046</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10003450</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>13000295</v>
       </c>
@@ -8427,13 +8427,13 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10023698</v>
       </c>
@@ -8453,10 +8453,10 @@
         <v>334.75</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10003480</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>13000295</v>
       </c>
@@ -8478,13 +8478,13 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10001720</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10003450</v>
       </c>
@@ -8518,7 +8518,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>13000295</v>
       </c>
@@ -8529,7 +8529,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10005103</v>
       </c>
@@ -8540,13 +8540,13 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10011829</v>
       </c>
@@ -8566,10 +8566,10 @@
         <v>1659.65</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10008584</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10003450</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>10003450</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10003450</v>
       </c>
@@ -8613,7 +8613,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>13000295</v>
       </c>
@@ -8624,7 +8624,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10015188</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>10023115</v>
       </c>
@@ -8646,13 +8646,13 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>10019034</v>
       </c>
@@ -8672,10 +8672,10 @@
         <v>750.9</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10017013</v>
       </c>
@@ -8686,7 +8686,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10003450</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10003450</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>13000295</v>
       </c>
@@ -8719,7 +8719,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>13000295</v>
       </c>
@@ -8730,13 +8730,13 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>10003450</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>10003450</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>10003450</v>
       </c>
@@ -8781,7 +8781,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>10003450</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>13000295</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>13000295</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>13000295</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>13000295</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -8845,7 +8845,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -8854,7 +8854,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -8863,7 +8863,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -8872,7 +8872,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -8881,7 +8881,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -8890,7 +8890,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -8899,7 +8899,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -8908,7 +8908,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -8917,7 +8917,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -8926,7 +8926,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -8935,7 +8935,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8944,7 +8944,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -8953,7 +8953,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -8962,7 +8962,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -8971,23 +8971,23 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -8996,7 +8996,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -9005,7 +9005,7 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -9014,7 +9014,7 @@
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -9023,7 +9023,7 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -9032,7 +9032,7 @@
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -9041,7 +9041,7 @@
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -9050,7 +9050,7 @@
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -9059,16 +9059,16 @@
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7">
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7">
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7">
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7">
       <c r="G124"/>
     </row>
   </sheetData>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gratisit-my.sharepoint.com/personal/engk01tr_gratis_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEF220A-3050-4C7E-BE74-FD030FF5C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{473FB7C8-BF53-4DE3-85C3-A831F7479668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -183,10 +183,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE53865-28EE-46CD-881F-9646B445FDFE}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -918,6 +918,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="G2:G9"/>
@@ -934,14 +942,6 @@
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -989,17 +989,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>10023698</v>
       </c>
       <c r="B2" s="12">
         <v>394.99</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>36.840000000000003</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>358.15</v>
       </c>
       <c r="E2" s="12">
@@ -1017,8 +1017,8 @@
         <v>10018762</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -1028,8 +1028,8 @@
         <v>10003482</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1039,8 +1039,8 @@
         <v>10003450</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1050,8 +1050,8 @@
         <v>13000295</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1074,10 +1074,10 @@
       <c r="B8" s="12">
         <v>326.5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>31.15</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>295.35000000000002</v>
       </c>
       <c r="E8" s="12">
@@ -1095,8 +1095,8 @@
         <v>10015790</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1106,8 +1106,8 @@
         <v>13000295</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2200,6 +2200,66 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="F74:F81"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G74:G81"/>
     <mergeCell ref="G67:G72"/>
@@ -2212,66 +2272,6 @@
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="F74:F81"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,6 +2869,14 @@
     <row r="68" customFormat="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
     <mergeCell ref="G19:G26"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G2:G8"/>
@@ -2885,14 +2893,6 @@
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,11 +3802,39 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
     <mergeCell ref="G66:G73"/>
     <mergeCell ref="G25:G32"/>
     <mergeCell ref="G34:G39"/>
@@ -3823,39 +3851,11 @@
     <mergeCell ref="F11:F16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G58:G64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4444,36 +4444,36 @@
     <row r="50" customFormat="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G41"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4483,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:G59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5042,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="12">
-        <v>233</v>
+        <v>233.5</v>
       </c>
       <c r="E45" s="12">
         <v>34.9</v>
@@ -5283,11 +5283,31 @@
     <row r="84" customFormat="1"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="B2:B9"/>
@@ -5300,31 +5320,11 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G29:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5334,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B475999E-C598-43F3-B6B7-DE13D39FAC7C}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="E35" workbookViewId="0">
       <selection activeCell="E35" sqref="E35:E40"/>
     </sheetView>
   </sheetViews>
@@ -5939,42 +5939,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="G42:G48"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6906,14 +6906,36 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G52:G58"/>
-    <mergeCell ref="G60:G66"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B2:B9"/>
@@ -6930,36 +6952,14 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="D11:D18"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="G60:G66"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G45:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7014,10 +7014,10 @@
       <c r="B2" s="12">
         <v>344</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>20</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>324</v>
       </c>
       <c r="E2" s="12">
@@ -7035,8 +7035,8 @@
         <v>11000392</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -7046,8 +7046,8 @@
         <v>11000392</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7057,8 +7057,8 @@
         <v>11000392</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -7068,8 +7068,8 @@
         <v>10042249</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7079,8 +7079,8 @@
         <v>10042249</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -7090,8 +7090,8 @@
         <v>10042249</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -7101,8 +7101,8 @@
         <v>10042249</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -7125,10 +7125,10 @@
       <c r="B11" s="12">
         <v>254.75</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>20.6</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>234.15</v>
       </c>
       <c r="E11" s="12">
@@ -7146,8 +7146,8 @@
         <v>10029636</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -7157,8 +7157,8 @@
         <v>11000392</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -7168,8 +7168,8 @@
         <v>11000392</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7179,8 +7179,8 @@
         <v>11000392</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7190,8 +7190,8 @@
         <v>11000392</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7201,8 +7201,8 @@
         <v>10042249</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7212,8 +7212,8 @@
         <v>10042249</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7223,8 +7223,8 @@
         <v>10042249</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -8436,6 +8436,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:F49"/>
+    <mergeCell ref="G62:G71"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D60"/>
+    <mergeCell ref="E51:E60"/>
+    <mergeCell ref="F51:F60"/>
+    <mergeCell ref="G51:G60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="F62:F71"/>
     <mergeCell ref="G82:G90"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="C73:C80"/>
@@ -8448,48 +8490,6 @@
     <mergeCell ref="D82:D90"/>
     <mergeCell ref="E82:E90"/>
     <mergeCell ref="F82:F90"/>
-    <mergeCell ref="G62:G71"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="D51:D60"/>
-    <mergeCell ref="E51:E60"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="G51:G60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:F49"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8499,8 +8499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D51"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9136,42 +9136,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
     <mergeCell ref="G29:G35"/>
     <mergeCell ref="G37:G42"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="G20:G27"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gratisit-my.sharepoint.com/personal/engk01tr_gratis_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473FB7C8-BF53-4DE3-85C3-A831F7479668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC8B2A7-7164-47DC-8492-0E6D8C24D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32994263-25BE-40BB-935D-F1983009F224}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74:G81"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1403,13 +1403,13 @@
         <v>104.83</v>
       </c>
       <c r="D35" s="12">
-        <v>1323.25</v>
+        <v>1346.65</v>
       </c>
       <c r="E35" s="12">
         <v>0</v>
       </c>
       <c r="F35" s="12">
-        <v>1323.25</v>
+        <v>1346.65</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>9</v>
@@ -4483,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB27A2-B6FB-453F-8675-DDDFC5B75466}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -8497,10 +8497,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9028,38 +9028,38 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="2">
-        <v>10015566</v>
+        <v>10029636</v>
       </c>
       <c r="B44" s="12">
-        <v>2767.25</v>
+        <v>1534</v>
       </c>
       <c r="C44" s="12">
         <v>16.75</v>
       </c>
       <c r="D44" s="12">
-        <v>2750.5</v>
+        <v>1517.25</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>2750.5</v>
+        <v>1517.25</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="2">
-        <v>10033046</v>
+        <v>10015566</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -9068,9 +9068,9 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="14.45" customHeight="1">
       <c r="A46" s="2">
-        <v>10011403</v>
+        <v>10033046</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -9079,9 +9079,9 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="14.45" customHeight="1">
       <c r="A47" s="2">
-        <v>14000119</v>
+        <v>10011403</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -9090,7 +9090,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="14.45" customHeight="1">
       <c r="A48" s="2">
         <v>14000119</v>
       </c>
@@ -9101,9 +9101,9 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="14.45" customHeight="1">
       <c r="A49" s="2">
-        <v>10011355</v>
+        <v>14000119</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -9112,9 +9112,9 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="14.45" customHeight="1">
       <c r="A50" s="2">
-        <v>10019602</v>
+        <v>10011355</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -9123,7 +9123,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14.45" customHeight="1">
       <c r="A51" s="2">
         <v>10003352</v>
       </c>
@@ -9134,6 +9134,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
+    <row r="52" spans="1:7" ht="15"/>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="B2:B9"/>
@@ -9156,11 +9157,6 @@
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="E29:E35"/>
     <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D42"/>
@@ -9168,10 +9164,15 @@
     <mergeCell ref="F37:F42"/>
     <mergeCell ref="G29:G35"/>
     <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G44:G51"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gratisit-my.sharepoint.com/personal/engk01tr_gratis_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC8B2A7-7164-47DC-8492-0E6D8C24D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{502575F6-1FF1-47FA-B00B-43434EEC1C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="10" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="1022110221" sheetId="3" r:id="rId6"/>
     <sheet name="1022610226" sheetId="9" r:id="rId7"/>
     <sheet name="1022010220" sheetId="14" r:id="rId8"/>
-    <sheet name="1024910249" sheetId="4" r:id="rId9"/>
-    <sheet name="1025510255" sheetId="13" r:id="rId10"/>
+    <sheet name="1025510255" sheetId="13" r:id="rId9"/>
+    <sheet name="1024910249" sheetId="4" r:id="rId10"/>
+    <sheet name="1031510315" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="23">
   <si>
     <t>Ürün Kodu</t>
   </si>
@@ -76,12 +77,51 @@
   <si>
     <t>MT</t>
   </si>
+  <si>
+    <t>812.64</t>
+  </si>
+  <si>
+    <t>81.26</t>
+  </si>
+  <si>
+    <t>731.38</t>
+  </si>
+  <si>
+    <t>599.25</t>
+  </si>
+  <si>
+    <t>59.93</t>
+  </si>
+  <si>
+    <t>539.32</t>
+  </si>
+  <si>
+    <t>582.5</t>
+  </si>
+  <si>
+    <t>58.25</t>
+  </si>
+  <si>
+    <t>524.25</t>
+  </si>
+  <si>
+    <t>868.99</t>
+  </si>
+  <si>
+    <t>86.9</t>
+  </si>
+  <si>
+    <t>782.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MT </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +155,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,10 +234,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,14 +979,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="G2:G9"/>
@@ -942,17 +995,25 @@
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32994263-25BE-40BB-935D-F1983009F224}">
-  <dimension ref="A1:G124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -990,160 +1051,148 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
-        <v>10023698</v>
+      <c r="A2" s="2">
+        <v>10029055</v>
       </c>
       <c r="B2" s="12">
-        <v>394.99</v>
-      </c>
-      <c r="C2" s="14">
-        <v>36.840000000000003</v>
-      </c>
-      <c r="D2" s="14">
-        <v>358.15</v>
+        <v>399.5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>33.5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>366</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12">
-        <v>358.15</v>
+        <v>366</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>10018762</v>
+      <c r="A3" s="2">
+        <v>10016979</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
-        <v>10003482</v>
+      <c r="A4" s="2">
+        <v>10016981</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7">
-        <v>10003450</v>
+      <c r="A5" s="2">
+        <v>10017022</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7">
-        <v>13000295</v>
+      <c r="A6" s="2">
+        <v>10029636</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6">
-      <c r="A8" s="6">
-        <v>10018762</v>
-      </c>
-      <c r="B8" s="12">
-        <v>326.5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>31.15</v>
-      </c>
-      <c r="D8" s="13">
-        <v>295.35000000000002</v>
-      </c>
-      <c r="E8" s="12">
-        <v>34.9</v>
-      </c>
-      <c r="F8" s="12">
-        <v>330.25</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6">
-      <c r="A9" s="6">
-        <v>10015790</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>10029636</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>10033046</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>10017090</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6">
-      <c r="A10" s="6">
-        <v>13000295</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11"/>
+      <c r="A11" s="2">
+        <v>10031016</v>
+      </c>
+      <c r="B11" s="12">
+        <v>228.5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>33.5</v>
+      </c>
+      <c r="D11" s="12">
+        <v>195</v>
+      </c>
+      <c r="E11" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>229.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>10003480</v>
-      </c>
-      <c r="B12" s="12">
-        <v>434.49</v>
-      </c>
-      <c r="C12" s="12">
-        <v>36.840000000000003</v>
-      </c>
-      <c r="D12" s="12">
-        <v>397.65</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>397.65</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>10029055</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>10017642</v>
+        <v>10029055</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1154,7 +1203,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>10003450</v>
+        <v>10005052</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1165,7 +1214,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>13000295</v>
+        <v>10005052</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1175,37 +1224,30 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16"/>
+      <c r="A16" s="2">
+        <v>10014863</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>10015247</v>
-      </c>
-      <c r="B17" s="12">
-        <v>897.48</v>
-      </c>
-      <c r="C17" s="12">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="D17" s="12">
-        <v>823.8</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>823.8</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>10029636</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>10017003</v>
+        <v>10029636</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1215,30 +1257,37 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>10006676</v>
+      </c>
+      <c r="B20" s="12">
+        <v>217.75</v>
+      </c>
+      <c r="C20" s="12">
+        <v>16.75</v>
+      </c>
+      <c r="D20" s="12">
+        <v>201</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>201</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>13000295</v>
+        <v>10005104</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1249,7 +1298,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>13000295</v>
+        <v>10029052</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1260,7 +1309,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>10023194</v>
+        <v>10005052</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1271,7 +1320,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>10023190</v>
+        <v>10022377</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1281,37 +1330,30 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25"/>
+      <c r="A25" s="2">
+        <v>10014863</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>10015790</v>
-      </c>
-      <c r="B26" s="12">
-        <v>614.98</v>
-      </c>
-      <c r="C26" s="12">
-        <v>42.53</v>
-      </c>
-      <c r="D26" s="12">
-        <v>572.45000000000005</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>572.45000000000005</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>10029636</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>10014865</v>
+        <v>10008866</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1321,30 +1363,37 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>10028562</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>10004378</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+        <v>10021661</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C29" s="12">
+        <v>33.5</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1673.5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1673.5</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>10003450</v>
+        <v>10002298</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1355,7 +1404,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>10003450</v>
+        <v>10029636</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1366,7 +1415,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>13000295</v>
+        <v>10029636</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1377,7 +1426,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>10015188</v>
+        <v>10001399</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1387,59 +1436,59 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34"/>
+      <c r="A34" s="2">
+        <v>10019602</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>10028783</v>
-      </c>
-      <c r="B35" s="12">
-        <v>1451.48</v>
-      </c>
-      <c r="C35" s="12">
-        <v>104.83</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1346.65</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>1346.65</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>10003352</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+        <v>10031016</v>
+      </c>
+      <c r="B37" s="12">
+        <v>251.75</v>
+      </c>
+      <c r="C37" s="12">
+        <v>16.75</v>
+      </c>
+      <c r="D37" s="12">
+        <v>235</v>
+      </c>
+      <c r="E37" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F37" s="12">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>10003450</v>
+        <v>10015790</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1450,7 +1499,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>13000295</v>
+        <v>10002298</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1461,7 +1510,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>13000295</v>
+        <v>10029636</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1472,7 +1521,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>13000295</v>
+        <v>10001399</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1483,7 +1532,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>14000119</v>
+        <v>10001399</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1492,38 +1541,38 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
       <c r="B44" s="12">
-        <v>549.24</v>
+        <v>1534</v>
       </c>
       <c r="C44" s="12">
-        <v>36.840000000000003</v>
+        <v>16.75</v>
       </c>
       <c r="D44" s="12">
-        <v>512.4</v>
+        <v>1517.25</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>512.4</v>
+        <v>1517.25</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="2">
-        <v>10033046</v>
+        <v>10015566</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1532,9 +1581,9 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="14.45" customHeight="1">
       <c r="A46" s="2">
-        <v>10003450</v>
+        <v>10033046</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1543,9 +1592,9 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="14.45" customHeight="1">
       <c r="A47" s="2">
-        <v>13000295</v>
+        <v>10011403</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1554,38 +1603,31 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7">
+    <row r="48" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A48" s="2">
+        <v>14000119</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.45" customHeight="1">
       <c r="A49" s="2">
-        <v>10023698</v>
-      </c>
-      <c r="B49" s="12">
-        <v>331</v>
-      </c>
-      <c r="C49" s="12">
-        <v>31.15</v>
-      </c>
-      <c r="D49" s="12">
-        <v>299.85000000000002</v>
-      </c>
-      <c r="E49" s="12">
-        <v>34.9</v>
-      </c>
-      <c r="F49" s="12">
-        <v>334.75</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>14000119</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.45" customHeight="1">
       <c r="A50" s="2">
-        <v>10003480</v>
+        <v>10011355</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1594,9 +1636,9 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14.45" customHeight="1">
       <c r="A51" s="2">
-        <v>13000295</v>
+        <v>10003352</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1605,673 +1647,495 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7" ht="15"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353E266-748B-4012-8128-88B14CF6D1CB}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16">
+        <v>10000237</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16">
+        <v>10029636</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16">
+        <v>10015566</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16">
+        <v>10003450</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16">
+        <v>10042249</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16">
+        <v>14000119</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16">
+        <v>10017266</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16">
+        <v>10017266</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2">
-        <v>10001720</v>
-      </c>
-      <c r="B53" s="12">
-        <v>445.99</v>
-      </c>
-      <c r="C53" s="12">
-        <v>36.840000000000003</v>
-      </c>
-      <c r="D53" s="12">
-        <v>409.15</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16">
+        <v>10172783</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F53" s="12">
-        <v>409.15</v>
-      </c>
-      <c r="G53" s="12" t="s">
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2">
+    <row r="12" spans="1:7">
+      <c r="A12" s="16">
+        <v>10015566</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16">
+        <v>10156534</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16">
+        <v>10126399</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16">
+        <v>10042249</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16">
+        <v>10011399</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16">
+        <v>10024659</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16">
+        <v>10266745</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16">
+        <v>10266741</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16">
+        <v>10266744</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16">
+        <v>14000119</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16">
+        <v>10011118</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16">
+        <v>10024660</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16">
+        <v>10024660</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16">
+        <v>10022623</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16">
+        <v>10266745</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16">
         <v>10003450</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="2">
-        <v>10005103</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>10011829</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1742.97</v>
-      </c>
-      <c r="C58" s="12">
-        <v>48.22</v>
-      </c>
-      <c r="D58" s="12">
-        <v>1694.75</v>
-      </c>
-      <c r="E58" s="12">
-        <v>0</v>
-      </c>
-      <c r="F58" s="12">
-        <v>1694.75</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2">
-        <v>10008584</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="2">
-        <v>10015188</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="2">
-        <v>10023115</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="2">
-        <v>10019034</v>
-      </c>
-      <c r="B67" s="12">
-        <v>847.98</v>
-      </c>
-      <c r="C67" s="12">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="D67" s="12">
-        <v>774.3</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0</v>
-      </c>
-      <c r="F67" s="12">
-        <v>774.3</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="2">
-        <v>10017013</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B74" s="12">
-        <v>1473.96</v>
-      </c>
-      <c r="C74" s="12">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="D74" s="12">
-        <v>1326.6</v>
-      </c>
-      <c r="E74" s="12">
-        <v>0</v>
-      </c>
-      <c r="F74" s="12">
-        <v>1326.6</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="2">
-        <v>10003450</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="2">
-        <v>13000295</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-    </row>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
-    <row r="113" spans="1:7">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="G121"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="G122"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="G123"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="G124"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16">
+        <v>10011404</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16">
+        <v>10011402</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="F74:F81"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G74:G81"/>
-    <mergeCell ref="G67:G72"/>
-    <mergeCell ref="G58:G65"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="G26:G33"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G8:G10"/>
+  <mergeCells count="24">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,14 +2733,6 @@
     <row r="68" customFormat="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
     <mergeCell ref="G19:G26"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G2:G8"/>
@@ -2893,6 +2749,14 @@
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,39 +3666,11 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F73"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G58:G64"/>
     <mergeCell ref="G66:G73"/>
     <mergeCell ref="G25:G32"/>
     <mergeCell ref="G34:G39"/>
@@ -3851,11 +3687,39 @@
     <mergeCell ref="F11:F16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4444,36 +4308,36 @@
     <row r="50" customFormat="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="D35:D41"/>
     <mergeCell ref="E35:E41"/>
     <mergeCell ref="F35:F41"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G18:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5283,31 +5147,11 @@
     <row r="84" customFormat="1"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G29:G34"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="B2:B9"/>
@@ -5320,11 +5164,31 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5939,42 +5803,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="G42:G48"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6906,36 +6770,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="G60:G66"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B2:B9"/>
@@ -6952,14 +6794,36 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G52:G58"/>
-    <mergeCell ref="G60:G66"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7014,10 +6878,10 @@
       <c r="B2" s="12">
         <v>344</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>20</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>324</v>
       </c>
       <c r="E2" s="12">
@@ -7035,8 +6899,8 @@
         <v>11000392</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -7046,8 +6910,8 @@
         <v>11000392</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7057,8 +6921,8 @@
         <v>11000392</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -7068,8 +6932,8 @@
         <v>10042249</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7079,8 +6943,8 @@
         <v>10042249</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -7090,8 +6954,8 @@
         <v>10042249</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -7101,8 +6965,8 @@
         <v>10042249</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -7125,10 +6989,10 @@
       <c r="B11" s="12">
         <v>254.75</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>20.6</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>234.15</v>
       </c>
       <c r="E11" s="12">
@@ -7146,8 +7010,8 @@
         <v>10029636</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -7157,8 +7021,8 @@
         <v>11000392</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -7168,8 +7032,8 @@
         <v>11000392</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7179,8 +7043,8 @@
         <v>11000392</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7190,8 +7054,8 @@
         <v>11000392</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7201,8 +7065,8 @@
         <v>10042249</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7212,8 +7076,8 @@
         <v>10042249</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7223,8 +7087,8 @@
         <v>10042249</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -8436,12 +8300,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G82:G90"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="D73:D80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F80"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="E82:E90"/>
+    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="G62:G71"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D60"/>
+    <mergeCell ref="E51:E60"/>
+    <mergeCell ref="F51:F60"/>
+    <mergeCell ref="G51:G60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:F49"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
@@ -8454,53 +8348,23 @@
     <mergeCell ref="D21:D29"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:F49"/>
-    <mergeCell ref="G62:G71"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="D51:D60"/>
-    <mergeCell ref="E51:E60"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="G51:G60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="G82:G90"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="D73:D80"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="E82:E90"/>
-    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32994263-25BE-40BB-935D-F1983009F224}">
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B51"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8538,148 +8402,160 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>10029055</v>
+      <c r="A2" s="7">
+        <v>10023698</v>
       </c>
       <c r="B2" s="12">
-        <v>399.5</v>
-      </c>
-      <c r="C2" s="12">
-        <v>33.5</v>
-      </c>
-      <c r="D2" s="12">
-        <v>366</v>
+        <v>394.99</v>
+      </c>
+      <c r="C2" s="13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="D2" s="13">
+        <v>358.15</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12">
-        <v>366</v>
+        <v>358.15</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>10016979</v>
+      <c r="A3" s="7">
+        <v>10018762</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>10016981</v>
+      <c r="A4" s="7">
+        <v>10003482</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>10017022</v>
+      <c r="A5" s="7">
+        <v>10003450</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>10029636</v>
+      <c r="A6" s="7">
+        <v>13000295</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>10033046</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>10017090</v>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="6">
+        <v>10018762</v>
+      </c>
+      <c r="B8" s="12">
+        <v>326.5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>31.15</v>
+      </c>
+      <c r="D8" s="14">
+        <v>295.35000000000002</v>
+      </c>
+      <c r="E8" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>330.25</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="6">
+        <v>10015790</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="6">
+        <v>13000295</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>10031016</v>
-      </c>
-      <c r="B11" s="12">
-        <v>228.5</v>
-      </c>
-      <c r="C11" s="12">
-        <v>33.5</v>
-      </c>
-      <c r="D11" s="12">
-        <v>195</v>
-      </c>
-      <c r="E11" s="12">
-        <v>34.9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>229.9</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>10029055</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+        <v>10003480</v>
+      </c>
+      <c r="B12" s="12">
+        <v>434.49</v>
+      </c>
+      <c r="C12" s="12">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="D12" s="12">
+        <v>397.65</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>397.65</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>10029055</v>
+        <v>10017642</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8690,7 +8566,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>10005052</v>
+        <v>10003450</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8701,7 +8577,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>10005052</v>
+        <v>13000295</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8711,30 +8587,37 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>10014863</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+        <v>10015247</v>
+      </c>
+      <c r="B17" s="12">
+        <v>897.48</v>
+      </c>
+      <c r="C17" s="12">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="D17" s="12">
+        <v>823.8</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>823.8</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>10029636</v>
+        <v>10017003</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8744,37 +8627,30 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19"/>
+      <c r="A19" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>10006676</v>
-      </c>
-      <c r="B20" s="12">
-        <v>217.75</v>
-      </c>
-      <c r="C20" s="12">
-        <v>16.75</v>
-      </c>
-      <c r="D20" s="12">
-        <v>201</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>201</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>10003450</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>10005104</v>
+        <v>13000295</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -8785,7 +8661,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>10029052</v>
+        <v>13000295</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8796,7 +8672,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>10005052</v>
+        <v>10023194</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -8807,7 +8683,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>10022377</v>
+        <v>10023190</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -8817,30 +8693,37 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>10014863</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>10029636</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+        <v>10015790</v>
+      </c>
+      <c r="B26" s="12">
+        <v>614.98</v>
+      </c>
+      <c r="C26" s="12">
+        <v>42.53</v>
+      </c>
+      <c r="D26" s="12">
+        <v>572.45000000000005</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>572.45000000000005</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>10008866</v>
+        <v>10014865</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8850,37 +8733,30 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28"/>
+      <c r="A28" s="2">
+        <v>10028562</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>10021661</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C29" s="12">
-        <v>33.5</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1673.5</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1673.5</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>10004378</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>10002298</v>
+        <v>10003450</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8891,7 +8767,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>10029636</v>
+        <v>10003450</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -8902,7 +8778,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>10029636</v>
+        <v>13000295</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -8913,7 +8789,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>10001399</v>
+        <v>10015188</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -8923,59 +8799,59 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <v>10019602</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>10003352</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+        <v>10028783</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1451.48</v>
+      </c>
+      <c r="C35" s="12">
+        <v>104.83</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1346.65</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1346.65</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36"/>
+      <c r="A36" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>10031016</v>
-      </c>
-      <c r="B37" s="12">
-        <v>251.75</v>
-      </c>
-      <c r="C37" s="12">
-        <v>16.75</v>
-      </c>
-      <c r="D37" s="12">
-        <v>235</v>
-      </c>
-      <c r="E37" s="12">
-        <v>34.9</v>
-      </c>
-      <c r="F37" s="12">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>10003450</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>10015790</v>
+        <v>10003450</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -8986,7 +8862,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>10002298</v>
+        <v>13000295</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -8997,7 +8873,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>10029636</v>
+        <v>13000295</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -9008,7 +8884,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>10001399</v>
+        <v>13000295</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -9019,7 +8895,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>10001399</v>
+        <v>14000119</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -9028,38 +8904,38 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
       <c r="B44" s="12">
-        <v>1534</v>
+        <v>549.24</v>
       </c>
       <c r="C44" s="12">
-        <v>16.75</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="D44" s="12">
-        <v>1517.25</v>
+        <v>512.4</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>1517.25</v>
+        <v>512.4</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>10015566</v>
+        <v>10033046</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -9068,9 +8944,9 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="14.45" customHeight="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>10033046</v>
+        <v>10003450</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -9079,9 +8955,9 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="14.45" customHeight="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>10011403</v>
+        <v>13000295</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -9090,31 +8966,38 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A48" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.45" customHeight="1">
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>14000119</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.45" customHeight="1">
+        <v>10023698</v>
+      </c>
+      <c r="B49" s="12">
+        <v>331</v>
+      </c>
+      <c r="C49" s="12">
+        <v>31.15</v>
+      </c>
+      <c r="D49" s="12">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="E49" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F49" s="12">
+        <v>334.75</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>10011355</v>
+        <v>10003480</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -9123,9 +9006,9 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="14.45" customHeight="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>10003352</v>
+        <v>13000295</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -9134,45 +9017,673 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="15"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
+        <v>10001720</v>
+      </c>
+      <c r="B53" s="12">
+        <v>445.99</v>
+      </c>
+      <c r="C53" s="12">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="D53" s="12">
+        <v>409.15</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>409.15</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
+        <v>10005103</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2">
+        <v>10011829</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1742.97</v>
+      </c>
+      <c r="C58" s="12">
+        <v>48.22</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1694.75</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1694.75</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
+        <v>10008584</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
+        <v>10015188</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
+        <v>10023115</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>10019034</v>
+      </c>
+      <c r="B67" s="12">
+        <v>847.98</v>
+      </c>
+      <c r="C67" s="12">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="D67" s="12">
+        <v>774.3</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12">
+        <v>774.3</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2">
+        <v>10017013</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B74" s="12">
+        <v>1473.96</v>
+      </c>
+      <c r="C74" s="12">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1326.6</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1326.6</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
+        <v>10003450</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
+        <v>13000295</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" spans="1:7">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="G124"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
+  <mergeCells count="72">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G74:G81"/>
+    <mergeCell ref="G67:G72"/>
+    <mergeCell ref="G58:G65"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G26:G33"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="F74:F81"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testinium/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260A7BE-5D3A-644E-8DBC-ACE5BFD9EBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DAB1E-FF39-0E44-9816-D070A0E7D440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21960" windowHeight="16300" firstSheet="9" activeTab="10" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="10" activeTab="10" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -97,14 +97,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,7 +123,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1659,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353E266-748B-4012-8128-88B14CF6D1CB}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C11" sqref="C11:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1814,19 +1811,19 @@
         <v>10172783</v>
       </c>
       <c r="B11" s="18">
-        <v>599.25</v>
+        <v>435.2</v>
       </c>
       <c r="C11" s="18">
-        <v>59.93</v>
+        <v>43.52</v>
       </c>
       <c r="D11" s="18">
-        <v>539.32000000000005</v>
+        <v>391.68</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>539.32000000000005</v>
+        <v>391.68</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>9</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>10156534</v>
+        <v>10015566</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1888,53 +1885,53 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="13">
+        <v>10011399</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>10024659</v>
-      </c>
-      <c r="B18" s="18">
-        <v>582.5</v>
-      </c>
-      <c r="C18" s="18">
-        <v>58.25</v>
-      </c>
-      <c r="D18" s="18">
-        <v>524.25</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>524.25</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>10266745</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+        <v>10024659</v>
+      </c>
+      <c r="B19" s="18">
+        <v>580</v>
+      </c>
+      <c r="C19" s="18">
+        <v>58</v>
+      </c>
+      <c r="D19" s="18">
+        <v>522</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>522</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>10266741</v>
+        <v>10017007</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>10266744</v>
+        <v>10030337</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1956,7 +1953,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>14000119</v>
+        <v>10001400</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <v>10011118</v>
+        <v>10011406</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1977,53 +1974,53 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="13">
+        <v>10011118</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>10024660</v>
-      </c>
-      <c r="B25" s="18">
-        <v>868.99</v>
-      </c>
-      <c r="C25" s="18">
-        <v>86.9</v>
-      </c>
-      <c r="D25" s="18">
-        <v>782.09</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>782.09</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>10024660</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="18">
+        <v>672.19</v>
+      </c>
+      <c r="C26" s="18">
+        <v>67.22</v>
+      </c>
+      <c r="D26" s="18">
+        <v>604.97</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>604.97</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <v>10022623</v>
+        <v>10024660</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <v>10266745</v>
+        <v>10022623</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>10011402</v>
+        <v>10011406</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2076,32 +2073,43 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>10011402</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G11:G17"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="G2:G9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testinium/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DAB1E-FF39-0E44-9816-D070A0E7D440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF9D60-B126-6144-A534-82E7B8DF0BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="10" activeTab="10" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="10" activeTab="11" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="1025510255" sheetId="13" r:id="rId9"/>
     <sheet name="1024910249" sheetId="4" r:id="rId10"/>
     <sheet name="1031510315" sheetId="15" r:id="rId11"/>
+    <sheet name="1031610316" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="20">
   <si>
     <t>Ürün Kodu</t>
   </si>
@@ -78,6 +79,33 @@
     <t>MT</t>
   </si>
   <si>
+    <t>812.64</t>
+  </si>
+  <si>
+    <t>81.26</t>
+  </si>
+  <si>
+    <t>731.38</t>
+  </si>
+  <si>
+    <t>435.2</t>
+  </si>
+  <si>
+    <t>43.52</t>
+  </si>
+  <si>
+    <t>391.68</t>
+  </si>
+  <si>
+    <t>672.19</t>
+  </si>
+  <si>
+    <t>67.22</t>
+  </si>
+  <si>
+    <t>604.97</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MT </t>
   </si>
 </sst>
@@ -97,12 +125,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,6 +153,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -205,10 +236,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,14 +974,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="G2:G9"/>
@@ -967,6 +990,14 @@
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1613,42 +1644,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G20:G27"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="B44:B51"/>
     <mergeCell ref="C44:C51"/>
     <mergeCell ref="D44:D51"/>
     <mergeCell ref="E44:E51"/>
     <mergeCell ref="F44:F51"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353E266-748B-4012-8128-88B14CF6D1CB}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,20 +1730,20 @@
       <c r="A2" s="13">
         <v>10000237</v>
       </c>
-      <c r="B2" s="18">
-        <v>812.64</v>
-      </c>
-      <c r="C2" s="18">
-        <v>81.260000000000005</v>
-      </c>
-      <c r="D2" s="18">
-        <v>731.38</v>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
-        <v>731.38</v>
+      <c r="F2" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>7</v>
@@ -1810,20 +1841,20 @@
       <c r="A11" s="13">
         <v>10172783</v>
       </c>
-      <c r="B11" s="18">
-        <v>435.2</v>
-      </c>
-      <c r="C11" s="18">
-        <v>43.52</v>
-      </c>
-      <c r="D11" s="18">
-        <v>391.68</v>
+      <c r="B11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="18">
-        <v>391.68</v>
+      <c r="F11" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>9</v>
@@ -1999,23 +2030,23 @@
       <c r="A26" s="13">
         <v>10024660</v>
       </c>
-      <c r="B26" s="18">
-        <v>672.19</v>
-      </c>
-      <c r="C26" s="18">
-        <v>67.22</v>
-      </c>
-      <c r="D26" s="18">
-        <v>604.97</v>
+      <c r="B26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="18">
-        <v>604.97</v>
+      <c r="F26" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2086,6 +2117,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
     <mergeCell ref="G11:G17"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
@@ -2098,6 +2141,443 @@
     <mergeCell ref="D11:D17"/>
     <mergeCell ref="E11:E17"/>
     <mergeCell ref="F11:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285DA9A9-3BF6-4236-9790-0C6AF36DF9DC}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>10000237</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1075.5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>537.75</v>
+      </c>
+      <c r="D2" s="18">
+        <v>537.75</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>537.75</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>10029636</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>10015566</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>10030337</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>10042249</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>10001400</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>14000119</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>10017266</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10028166</v>
+      </c>
+      <c r="B11" s="18">
+        <v>842.5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>421.25</v>
+      </c>
+      <c r="D11" s="18">
+        <v>421.25</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>421.25</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>10014866</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>10017007</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>10126399</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>10016061</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>10016061</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>10001400</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>10042249</v>
+      </c>
+      <c r="B19" s="18">
+        <v>774.5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>387.25</v>
+      </c>
+      <c r="D19" s="18">
+        <v>387.25</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>387.25</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>10011404</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>10014493</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>10017266</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>10011118</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>10011118</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>10014866</v>
+      </c>
+      <c r="B26" s="18">
+        <v>374.5</v>
+      </c>
+      <c r="C26" s="18">
+        <v>187.25</v>
+      </c>
+      <c r="D26" s="18">
+        <v>187.25</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>187.25</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>10014866</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>10022623</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>10069295</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>10029636</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>10015566</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>21000534</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
@@ -2110,6 +2590,18 @@
     <mergeCell ref="D26:D32"/>
     <mergeCell ref="E26:E32"/>
     <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="F11:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2707,14 +3199,6 @@
     <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
     <mergeCell ref="G19:G26"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G2:G8"/>
@@ -2731,6 +3215,14 @@
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3640,39 +4132,11 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F73"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G58:G64"/>
     <mergeCell ref="G66:G73"/>
     <mergeCell ref="G25:G32"/>
     <mergeCell ref="G34:G39"/>
@@ -3689,11 +4153,39 @@
     <mergeCell ref="F11:F16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4282,36 +4774,36 @@
     <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="D35:D41"/>
     <mergeCell ref="E35:E41"/>
     <mergeCell ref="F35:F41"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="G18:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5121,31 +5613,11 @@
     <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G29:G34"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="B2:B9"/>
@@ -5158,11 +5630,31 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5777,42 +6269,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G27:G33"/>
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="G42:G48"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="G18:G25"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6744,36 +7236,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="E52:E58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="G60:G66"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B2:B9"/>
@@ -6790,14 +7260,36 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G52:G58"/>
-    <mergeCell ref="G60:G66"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6852,10 +7344,10 @@
       <c r="B2" s="15">
         <v>344</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>20</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>324</v>
       </c>
       <c r="E2" s="15">
@@ -6873,8 +7365,8 @@
         <v>11000392</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -6884,8 +7376,8 @@
         <v>11000392</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -6895,8 +7387,8 @@
         <v>11000392</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -6906,8 +7398,8 @@
         <v>10042249</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -6917,8 +7409,8 @@
         <v>10042249</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -6928,8 +7420,8 @@
         <v>10042249</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -6939,8 +7431,8 @@
         <v>10042249</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -6963,10 +7455,10 @@
       <c r="B11" s="15">
         <v>254.75</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>20.6</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>234.15</v>
       </c>
       <c r="E11" s="15">
@@ -6984,8 +7476,8 @@
         <v>10029636</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -6995,8 +7487,8 @@
         <v>11000392</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7006,8 +7498,8 @@
         <v>11000392</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -7017,8 +7509,8 @@
         <v>11000392</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -7028,8 +7520,8 @@
         <v>11000392</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -7039,8 +7531,8 @@
         <v>10042249</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -7050,8 +7542,8 @@
         <v>10042249</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -7061,8 +7553,8 @@
         <v>10042249</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -8274,12 +8766,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G82:G90"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="D73:D80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F80"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="E82:E90"/>
+    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="G62:G71"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D60"/>
+    <mergeCell ref="E51:E60"/>
+    <mergeCell ref="F51:F60"/>
+    <mergeCell ref="G51:G60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:F49"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
@@ -8292,42 +8814,12 @@
     <mergeCell ref="D21:D29"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:F49"/>
-    <mergeCell ref="G62:G71"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="D51:D60"/>
-    <mergeCell ref="E51:E60"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="G51:G60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="G82:G90"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="D73:D80"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="E82:E90"/>
-    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8382,10 +8874,10 @@
       <c r="B2" s="15">
         <v>394.99</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>36.840000000000003</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>358.15</v>
       </c>
       <c r="E2" s="15">
@@ -8403,8 +8895,8 @@
         <v>10018762</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -8414,8 +8906,8 @@
         <v>10003482</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -8425,8 +8917,8 @@
         <v>10003450</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -8436,8 +8928,8 @@
         <v>13000295</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -8460,10 +8952,10 @@
       <c r="B8" s="15">
         <v>326.5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>31.15</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>295.35000000000002</v>
       </c>
       <c r="E8" s="15">
@@ -8481,8 +8973,8 @@
         <v>10015790</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -8492,8 +8984,8 @@
         <v>13000295</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -9586,66 +10078,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="F74:F81"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G74:G81"/>
     <mergeCell ref="G67:G72"/>
@@ -9658,6 +10090,66 @@
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="F74:F81"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel/KampanyaTestleri.xlsx
+++ b/src/test/resources/excel/KampanyaTestleri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testinium/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gratisit-my.sharepoint.com/personal/engk01tr_gratis_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF9D60-B126-6144-A534-82E7B8DF0BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2B553B-4037-4456-AA74-06C469C11B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="10" activeTab="11" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="12" xr2:uid="{0087B5A3-399B-4A17-8A95-DF6F2C9CFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="1022310223" sheetId="5" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="1024910249" sheetId="4" r:id="rId10"/>
     <sheet name="1031510315" sheetId="15" r:id="rId11"/>
     <sheet name="1031610316" sheetId="16" r:id="rId12"/>
+    <sheet name="1033110331" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="13">
   <si>
     <t>Ürün Kodu</t>
   </si>
@@ -79,41 +80,20 @@
     <t>MT</t>
   </si>
   <si>
-    <t>812.64</t>
+    <t xml:space="preserve"> MT </t>
   </si>
   <si>
-    <t>81.26</t>
+    <t>Ürün Linki</t>
   </si>
   <si>
-    <t>731.38</t>
-  </si>
-  <si>
-    <t>435.2</t>
-  </si>
-  <si>
-    <t>43.52</t>
-  </si>
-  <si>
-    <t>391.68</t>
-  </si>
-  <si>
-    <t>672.19</t>
-  </si>
-  <si>
-    <t>67.22</t>
-  </si>
-  <si>
-    <t>604.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MT </t>
+    <t>Kampanyalı Ürün Listesi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +105,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +131,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -262,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,21 +538,21 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -598,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10031016</v>
       </c>
@@ -621,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10024660</v>
       </c>
@@ -632,7 +609,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10024660</v>
       </c>
@@ -643,7 +620,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10005055</v>
       </c>
@@ -654,7 +631,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10016061</v>
       </c>
@@ -665,7 +642,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10003863</v>
       </c>
@@ -676,7 +653,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10014493</v>
       </c>
@@ -687,7 +664,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017265</v>
       </c>
@@ -698,13 +675,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024660</v>
       </c>
@@ -727,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10002298</v>
       </c>
@@ -738,7 +715,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10012776</v>
       </c>
@@ -749,7 +726,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10030337</v>
       </c>
@@ -760,7 +737,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10011403</v>
       </c>
@@ -771,13 +748,13 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10024660</v>
       </c>
@@ -800,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10024660</v>
       </c>
@@ -811,7 +788,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10028783</v>
       </c>
@@ -822,7 +799,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10016061</v>
       </c>
@@ -833,7 +810,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10042249</v>
       </c>
@@ -844,7 +821,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>14000119</v>
       </c>
@@ -855,13 +832,13 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10031016</v>
       </c>
@@ -884,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10024660</v>
       </c>
@@ -895,7 +872,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10062710</v>
       </c>
@@ -906,7 +883,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10023071</v>
       </c>
@@ -917,7 +894,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10017037</v>
       </c>
@@ -928,7 +905,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10017012</v>
       </c>
@@ -939,7 +916,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10008866</v>
       </c>
@@ -950,7 +927,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10017266</v>
       </c>
@@ -961,7 +938,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10017266</v>
       </c>
@@ -1005,24 +982,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A820D7-2A77-47D5-9EF4-EA2F91DD3F2E}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10029055</v>
       </c>
@@ -1068,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10016979</v>
       </c>
@@ -1079,7 +1056,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10016981</v>
       </c>
@@ -1090,7 +1067,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10017022</v>
       </c>
@@ -1101,7 +1078,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10029636</v>
       </c>
@@ -1112,7 +1089,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10029636</v>
       </c>
@@ -1123,7 +1100,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10033046</v>
       </c>
@@ -1134,7 +1111,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017090</v>
       </c>
@@ -1145,13 +1122,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10031016</v>
       </c>
@@ -1174,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10029055</v>
       </c>
@@ -1185,7 +1162,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10029055</v>
       </c>
@@ -1196,7 +1173,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10005052</v>
       </c>
@@ -1207,7 +1184,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10005052</v>
       </c>
@@ -1218,7 +1195,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10014863</v>
       </c>
@@ -1229,7 +1206,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10029636</v>
       </c>
@@ -1240,7 +1217,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10029636</v>
       </c>
@@ -1251,13 +1228,13 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10006676</v>
       </c>
@@ -1280,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10005104</v>
       </c>
@@ -1291,7 +1268,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10029052</v>
       </c>
@@ -1302,7 +1279,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10005052</v>
       </c>
@@ -1313,7 +1290,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10022377</v>
       </c>
@@ -1324,7 +1301,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10014863</v>
       </c>
@@ -1335,7 +1312,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10029636</v>
       </c>
@@ -1346,7 +1323,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10008866</v>
       </c>
@@ -1357,13 +1334,13 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10021661</v>
       </c>
@@ -1386,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10002298</v>
       </c>
@@ -1397,7 +1374,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10029636</v>
       </c>
@@ -1408,7 +1385,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10029636</v>
       </c>
@@ -1419,7 +1396,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10001399</v>
       </c>
@@ -1430,7 +1407,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10019602</v>
       </c>
@@ -1441,7 +1418,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10003352</v>
       </c>
@@ -1452,13 +1429,13 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10031016</v>
       </c>
@@ -1481,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10015790</v>
       </c>
@@ -1492,7 +1469,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10002298</v>
       </c>
@@ -1503,7 +1480,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10029636</v>
       </c>
@@ -1514,7 +1491,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10001399</v>
       </c>
@@ -1525,7 +1502,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10001399</v>
       </c>
@@ -1536,13 +1513,13 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
@@ -1565,7 +1542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="2">
         <v>10015566</v>
       </c>
@@ -1576,7 +1553,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.45" customHeight="1">
       <c r="A46" s="2">
         <v>10033046</v>
       </c>
@@ -1587,7 +1564,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.45" customHeight="1">
       <c r="A47" s="2">
         <v>10011403</v>
       </c>
@@ -1598,7 +1575,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.45" customHeight="1">
       <c r="A48" s="2">
         <v>14000119</v>
       </c>
@@ -1609,7 +1586,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.45" customHeight="1">
       <c r="A49" s="2">
         <v>14000119</v>
       </c>
@@ -1620,7 +1597,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.45" customHeight="1">
       <c r="A50" s="2">
         <v>10011355</v>
       </c>
@@ -1631,7 +1608,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.45" customHeight="1">
       <c r="A51" s="2">
         <v>10003352</v>
       </c>
@@ -1642,6 +1619,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
+    <row r="52" spans="1:7" ht="15"/>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="G44:G51"/>
@@ -1689,21 +1667,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353E266-748B-4012-8128-88B14CF6D1CB}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="4" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1726,30 +1704,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="13">
         <v>10000237</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>12</v>
+      <c r="B2" s="18">
+        <v>812.64</v>
+      </c>
+      <c r="C2" s="18">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="D2" s="18">
+        <v>731.38</v>
       </c>
       <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>12</v>
+      <c r="F2" s="18">
+        <v>731.38</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="13">
         <v>10029636</v>
       </c>
@@ -1760,7 +1738,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="13">
         <v>10015566</v>
       </c>
@@ -1771,7 +1749,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13">
         <v>10003450</v>
       </c>
@@ -1782,7 +1760,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>10042249</v>
       </c>
@@ -1793,7 +1771,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="13">
         <v>14000119</v>
       </c>
@@ -1804,7 +1782,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="13">
         <v>10017266</v>
       </c>
@@ -1815,7 +1793,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="13">
         <v>10017266</v>
       </c>
@@ -1826,7 +1804,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1837,30 +1815,30 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="13">
         <v>10172783</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
+      <c r="B11" s="18">
+        <v>435.2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43.52</v>
+      </c>
+      <c r="D11" s="18">
+        <v>391.68</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>15</v>
+      <c r="F11" s="18">
+        <v>391.68</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="13">
         <v>10015566</v>
       </c>
@@ -1871,7 +1849,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="13">
         <v>10015566</v>
       </c>
@@ -1882,7 +1860,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="13">
         <v>10126399</v>
       </c>
@@ -1893,7 +1871,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="13">
         <v>10042249</v>
       </c>
@@ -1904,7 +1882,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="13">
         <v>10011399</v>
       </c>
@@ -1915,7 +1893,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="13">
         <v>10011399</v>
       </c>
@@ -1926,7 +1904,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1915,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="13">
         <v>10024659</v>
       </c>
@@ -1960,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="13">
         <v>10017007</v>
       </c>
@@ -1971,7 +1949,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="13">
         <v>10030337</v>
       </c>
@@ -1982,7 +1960,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="13">
         <v>10001400</v>
       </c>
@@ -1993,7 +1971,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="13">
         <v>10011406</v>
       </c>
@@ -2004,7 +1982,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="13">
         <v>10011118</v>
       </c>
@@ -2015,7 +1993,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
@@ -2026,30 +2004,30 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="13">
         <v>10024660</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>18</v>
+      <c r="B26" s="18">
+        <v>672.19</v>
+      </c>
+      <c r="C26" s="18">
+        <v>67.22</v>
+      </c>
+      <c r="D26" s="18">
+        <v>604.97</v>
       </c>
       <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>18</v>
+      <c r="F26" s="18">
+        <v>604.97</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="13">
         <v>10024660</v>
       </c>
@@ -2060,7 +2038,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="13">
         <v>10022623</v>
       </c>
@@ -2071,7 +2049,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="13">
         <v>10003450</v>
       </c>
@@ -2082,7 +2060,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="13">
         <v>10011404</v>
       </c>
@@ -2093,7 +2071,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="13">
         <v>10011406</v>
       </c>
@@ -2104,7 +2082,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="13">
         <v>10011402</v>
       </c>
@@ -2148,23 +2126,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285DA9A9-3BF6-4236-9790-0C6AF36DF9DC}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2186,8 +2167,11 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="13">
         <v>10000237</v>
       </c>
@@ -2210,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="13">
         <v>10029636</v>
       </c>
@@ -2221,7 +2205,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="13">
         <v>10015566</v>
       </c>
@@ -2232,7 +2216,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="13">
         <v>10030337</v>
       </c>
@@ -2243,7 +2227,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="13">
         <v>10042249</v>
       </c>
@@ -2254,7 +2238,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="13">
         <v>10001400</v>
       </c>
@@ -2264,8 +2248,11 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J7" s="13">
+        <v>10000237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="13">
         <v>14000119</v>
       </c>
@@ -2275,8 +2262,11 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8" s="13">
+        <v>10029636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="13">
         <v>10017266</v>
       </c>
@@ -2286,8 +2276,11 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9" s="13">
+        <v>10015566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -2297,8 +2290,11 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10" s="13">
+        <v>10030337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="13">
         <v>10028166</v>
       </c>
@@ -2320,8 +2316,11 @@
       <c r="G11" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11" s="13">
+        <v>10042249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="13">
         <v>10014866</v>
       </c>
@@ -2331,8 +2330,11 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J12" s="13">
+        <v>10001400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="13">
         <v>10017007</v>
       </c>
@@ -2342,8 +2344,11 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13" s="13">
+        <v>14000119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="13">
         <v>10126399</v>
       </c>
@@ -2353,8 +2358,11 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" s="13">
+        <v>10017266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="13">
         <v>10016061</v>
       </c>
@@ -2364,8 +2372,11 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J15" s="13">
+        <v>10028166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="13">
         <v>10016061</v>
       </c>
@@ -2375,8 +2386,11 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J16" s="13">
+        <v>10014866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="13">
         <v>10001400</v>
       </c>
@@ -2386,8 +2400,11 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J17" s="13">
+        <v>10017007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2415,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="13">
         <v>10042249</v>
       </c>
@@ -2421,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="13">
         <v>10011404</v>
       </c>
@@ -2432,7 +2449,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="13">
         <v>10014493</v>
       </c>
@@ -2443,7 +2460,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="13">
         <v>10017266</v>
       </c>
@@ -2454,7 +2471,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="13">
         <v>10011118</v>
       </c>
@@ -2465,7 +2482,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="13">
         <v>10011118</v>
       </c>
@@ -2476,7 +2493,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2504,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="13">
         <v>10014866</v>
       </c>
@@ -2507,10 +2524,10 @@
         <v>187.25</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="13">
         <v>10014866</v>
       </c>
@@ -2521,7 +2538,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="13">
         <v>10022623</v>
       </c>
@@ -2532,7 +2549,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="13">
         <v>10069295</v>
       </c>
@@ -2543,7 +2560,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="13">
         <v>10029636</v>
       </c>
@@ -2554,7 +2571,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="13">
         <v>10015566</v>
       </c>
@@ -2565,7 +2582,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="13">
         <v>21000534</v>
       </c>
@@ -2607,6 +2624,425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C629D77-C6DC-4E15-AA7D-C6D8286FB88C}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>14000071</v>
+      </c>
+      <c r="B2" s="18">
+        <v>397.39</v>
+      </c>
+      <c r="C2" s="18">
+        <v>62.23</v>
+      </c>
+      <c r="D2" s="18">
+        <v>335.16</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>335.16</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>10011709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>10003450</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="I3">
+        <v>14000071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>14000119</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="I4">
+        <v>10002298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5">
+        <v>10017266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>10023224</v>
+      </c>
+      <c r="B6" s="18">
+        <v>500.19</v>
+      </c>
+      <c r="C6" s="18">
+        <v>350.11</v>
+      </c>
+      <c r="D6" s="18">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>10166690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>10028562</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="I7">
+        <v>10017265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>10002298</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="I8">
+        <v>10023224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>14000071</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="I9">
+        <v>10022377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>10017265</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="I10">
+        <v>10028562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>10166690</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="I11">
+        <v>10131349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>10017266</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>10022377</v>
+      </c>
+      <c r="B14" s="18">
+        <v>503.25</v>
+      </c>
+      <c r="C14" s="18">
+        <v>16.62</v>
+      </c>
+      <c r="D14" s="18">
+        <v>486.63</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>486.63</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>10172783</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>10011402</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13">
+        <v>10022377</v>
+      </c>
+      <c r="B18" s="18">
+        <v>604.5</v>
+      </c>
+      <c r="C18" s="18">
+        <v>203.32</v>
+      </c>
+      <c r="D18" s="18">
+        <v>401.18</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>401.18</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13">
+        <v>10022377</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13">
+        <v>10023224</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13">
+        <v>10023224</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13">
+        <v>10023224</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13">
+        <v>10023224</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13">
+        <v>10021661</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>14000119</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C308EB-BC62-47F6-9A13-1EE86748E34A}">
   <dimension ref="A1:H68"/>
@@ -2615,18 +3051,18 @@
       <selection activeCell="C28" sqref="C28:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10031016</v>
       </c>
@@ -2672,7 +3108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10022683</v>
       </c>
@@ -2683,7 +3119,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10024660</v>
       </c>
@@ -2694,7 +3130,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>11000687</v>
       </c>
@@ -2705,7 +3141,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10000238</v>
       </c>
@@ -2716,7 +3152,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10000238</v>
       </c>
@@ -2727,7 +3163,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10003352</v>
       </c>
@@ -2738,13 +3174,13 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>10013578</v>
       </c>
@@ -2767,7 +3203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10021733</v>
       </c>
@@ -2778,7 +3214,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10021733</v>
       </c>
@@ -2789,7 +3225,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10017013</v>
       </c>
@@ -2800,7 +3236,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10023071</v>
       </c>
@@ -2811,7 +3247,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10008584</v>
       </c>
@@ -2822,7 +3258,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10013125</v>
       </c>
@@ -2833,7 +3269,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>10017266</v>
       </c>
@@ -2844,13 +3280,13 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>10017234</v>
       </c>
@@ -2874,7 +3310,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>10017234</v>
       </c>
@@ -2886,7 +3322,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>10028783</v>
       </c>
@@ -2898,7 +3334,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>11000687</v>
       </c>
@@ -2910,7 +3346,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>10019034</v>
       </c>
@@ -2922,7 +3358,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>10033046</v>
       </c>
@@ -2934,7 +3370,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>10017266</v>
       </c>
@@ -2946,7 +3382,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>10017424</v>
       </c>
@@ -2958,13 +3394,13 @@
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>10022683</v>
       </c>
@@ -2987,7 +3423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>10028562</v>
       </c>
@@ -2998,7 +3434,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>10019034</v>
       </c>
@@ -3009,7 +3445,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>10017007</v>
       </c>
@@ -3020,7 +3456,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>10013125</v>
       </c>
@@ -3031,7 +3467,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10017265</v>
       </c>
@@ -3042,7 +3478,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3051,7 +3487,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3060,7 +3496,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3069,7 +3505,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3078,7 +3514,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3087,7 +3523,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3096,7 +3532,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3105,7 +3541,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3114,7 +3550,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3123,7 +3559,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3132,7 +3568,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3141,7 +3577,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3150,7 +3586,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3159,7 +3595,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3168,7 +3604,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3177,26 +3613,26 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="G19:G26"/>
@@ -3236,18 +3672,18 @@
       <selection activeCell="G66" sqref="G66:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10029636</v>
       </c>
@@ -3293,7 +3729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10029636</v>
       </c>
@@ -3304,7 +3740,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10029636</v>
       </c>
@@ -3315,7 +3751,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10033046</v>
       </c>
@@ -3326,7 +3762,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10033046</v>
       </c>
@@ -3337,7 +3773,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10033046</v>
       </c>
@@ -3348,7 +3784,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>14000119</v>
       </c>
@@ -3359,7 +3795,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017266</v>
       </c>
@@ -3370,13 +3806,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10022979</v>
       </c>
@@ -3399,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10017037</v>
       </c>
@@ -3410,7 +3846,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10029636</v>
       </c>
@@ -3421,7 +3857,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10029636</v>
       </c>
@@ -3432,7 +3868,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10033046</v>
       </c>
@@ -3443,7 +3879,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10033046</v>
       </c>
@@ -3454,13 +3890,13 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10029052</v>
       </c>
@@ -3483,7 +3919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10021733</v>
       </c>
@@ -3494,7 +3930,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10022979</v>
       </c>
@@ -3505,7 +3941,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10023071</v>
       </c>
@@ -3516,7 +3952,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10029636</v>
       </c>
@@ -3527,7 +3963,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10033046</v>
       </c>
@@ -3538,13 +3974,13 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10019034</v>
       </c>
@@ -3567,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10029636</v>
       </c>
@@ -3578,7 +4014,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10029636</v>
       </c>
@@ -3589,7 +4025,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10033046</v>
       </c>
@@ -3600,7 +4036,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10033046</v>
       </c>
@@ -3611,7 +4047,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10013125</v>
       </c>
@@ -3622,7 +4058,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10016822</v>
       </c>
@@ -3633,7 +4069,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>10008950</v>
       </c>
@@ -3644,13 +4080,13 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10014862</v>
       </c>
@@ -3673,7 +4109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10014866</v>
       </c>
@@ -3684,7 +4120,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10029636</v>
       </c>
@@ -3695,7 +4131,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10029636</v>
       </c>
@@ -3706,7 +4142,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10033046</v>
       </c>
@@ -3717,7 +4153,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10013125</v>
       </c>
@@ -3728,13 +4164,13 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10011829</v>
       </c>
@@ -3757,7 +4193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>10029636</v>
       </c>
@@ -3768,7 +4204,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>10029636</v>
       </c>
@@ -3779,7 +4215,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
@@ -3790,7 +4226,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10030337</v>
       </c>
@@ -3801,7 +4237,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10033046</v>
       </c>
@@ -3812,7 +4248,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10033046</v>
       </c>
@@ -3823,7 +4259,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10033046</v>
       </c>
@@ -3834,13 +4270,13 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10017580</v>
       </c>
@@ -3863,7 +4299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>10019995</v>
       </c>
@@ -3874,7 +4310,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10029636</v>
       </c>
@@ -3885,7 +4321,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10029636</v>
       </c>
@@ -3896,7 +4332,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10033046</v>
       </c>
@@ -3907,7 +4343,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10033046</v>
       </c>
@@ -3918,7 +4354,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10033046</v>
       </c>
@@ -3929,13 +4365,13 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10024660</v>
       </c>
@@ -3958,7 +4394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10028540</v>
       </c>
@@ -3969,7 +4405,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10028863</v>
       </c>
@@ -3980,7 +4416,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>10019996</v>
       </c>
@@ -3991,7 +4427,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10029636</v>
       </c>
@@ -4002,7 +4438,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>10029636</v>
       </c>
@@ -4013,7 +4449,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10033046</v>
       </c>
@@ -4024,13 +4460,13 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>10028166</v>
       </c>
@@ -4053,7 +4489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>10031016</v>
       </c>
@@ -4064,7 +4500,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10028540</v>
       </c>
@@ -4075,7 +4511,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10029636</v>
       </c>
@@ -4086,7 +4522,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10029636</v>
       </c>
@@ -4097,7 +4533,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10030337</v>
       </c>
@@ -4108,7 +4544,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>10033046</v>
       </c>
@@ -4119,7 +4555,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>10033046</v>
       </c>
@@ -4199,18 +4635,18 @@
       <selection activeCell="G35" sqref="G35:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10213273</v>
       </c>
@@ -4256,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10213273</v>
       </c>
@@ -4267,7 +4703,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10213273</v>
       </c>
@@ -4278,7 +4714,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10264065</v>
       </c>
@@ -4289,7 +4725,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10264065</v>
       </c>
@@ -4300,7 +4736,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10264065</v>
       </c>
@@ -4311,7 +4747,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10033046</v>
       </c>
@@ -4322,7 +4758,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003352</v>
       </c>
@@ -4333,13 +4769,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10213273</v>
       </c>
@@ -4362,7 +4798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10264065</v>
       </c>
@@ -4373,7 +4809,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10264065</v>
       </c>
@@ -4384,7 +4820,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10019034</v>
       </c>
@@ -4395,7 +4831,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11000392</v>
       </c>
@@ -4406,7 +4842,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10042249</v>
       </c>
@@ -4417,13 +4853,13 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10213273</v>
       </c>
@@ -4446,7 +4882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10213273</v>
       </c>
@@ -4457,7 +4893,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10264065</v>
       </c>
@@ -4468,7 +4904,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10264065</v>
       </c>
@@ -4479,7 +4915,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10264065</v>
       </c>
@@ -4490,7 +4926,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10264065</v>
       </c>
@@ -4501,7 +4937,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10028540</v>
       </c>
@@ -4512,7 +4948,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10023224</v>
       </c>
@@ -4523,13 +4959,13 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10213273</v>
       </c>
@@ -4552,7 +4988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10213273</v>
       </c>
@@ -4563,7 +4999,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10264065</v>
       </c>
@@ -4574,7 +5010,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10264065</v>
       </c>
@@ -4585,7 +5021,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10264065</v>
       </c>
@@ -4596,7 +5032,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>14000119</v>
       </c>
@@ -4607,7 +5043,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10019602</v>
       </c>
@@ -4618,13 +5054,13 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10031016</v>
       </c>
@@ -4647,7 +5083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10213273</v>
       </c>
@@ -4658,7 +5094,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10213273</v>
       </c>
@@ -4669,7 +5105,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10213273</v>
       </c>
@@ -4680,7 +5116,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10264065</v>
       </c>
@@ -4691,7 +5127,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10264065</v>
       </c>
@@ -4702,7 +5138,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10264065</v>
       </c>
@@ -4713,10 +5149,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -4725,7 +5161,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -4734,7 +5170,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4743,7 +5179,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4752,7 +5188,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -4761,7 +5197,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -4770,8 +5206,8 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="G27:G33"/>
@@ -4817,18 +5253,18 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4851,7 +5287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10039330</v>
       </c>
@@ -4874,7 +5310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10039330</v>
       </c>
@@ -4885,7 +5321,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10028783</v>
       </c>
@@ -4896,7 +5332,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>11000687</v>
       </c>
@@ -4907,7 +5343,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>11000687</v>
       </c>
@@ -4918,7 +5354,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10015566</v>
       </c>
@@ -4929,7 +5365,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10003450</v>
       </c>
@@ -4940,7 +5376,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003450</v>
       </c>
@@ -4951,13 +5387,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024660</v>
       </c>
@@ -4980,7 +5416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10014737</v>
       </c>
@@ -4991,7 +5427,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10003482</v>
       </c>
@@ -5002,7 +5438,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10039330</v>
       </c>
@@ -5013,7 +5449,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10039330</v>
       </c>
@@ -5024,7 +5460,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>11000687</v>
       </c>
@@ -5035,7 +5471,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>11000687</v>
       </c>
@@ -5046,7 +5482,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>10029636</v>
       </c>
@@ -5057,13 +5493,13 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>10039330</v>
       </c>
@@ -5086,7 +5522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>10028870</v>
       </c>
@@ -5097,7 +5533,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>11000687</v>
       </c>
@@ -5108,7 +5544,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>11000687</v>
       </c>
@@ -5119,7 +5555,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>10019034</v>
       </c>
@@ -5130,7 +5566,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>10015566</v>
       </c>
@@ -5141,7 +5577,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>10003450</v>
       </c>
@@ -5152,7 +5588,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>10017266</v>
       </c>
@@ -5163,13 +5599,13 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>10031016</v>
       </c>
@@ -5193,7 +5629,7 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>10024660</v>
       </c>
@@ -5204,7 +5640,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>10039330</v>
       </c>
@@ -5215,7 +5651,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>10039330</v>
       </c>
@@ -5226,7 +5662,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>11000687</v>
       </c>
@@ -5237,7 +5673,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>11000687</v>
       </c>
@@ -5248,13 +5684,13 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>10006676</v>
       </c>
@@ -5278,7 +5714,7 @@
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>10039330</v>
       </c>
@@ -5289,7 +5725,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>10039330</v>
       </c>
@@ -5300,7 +5736,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>11000687</v>
       </c>
@@ -5311,7 +5747,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>11000687</v>
       </c>
@@ -5322,7 +5758,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>10017022</v>
       </c>
@@ -5333,7 +5769,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>10017037</v>
       </c>
@@ -5344,7 +5780,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>10017029</v>
       </c>
@@ -5355,13 +5791,13 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>10029053</v>
       </c>
@@ -5385,7 +5821,7 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>10016988</v>
       </c>
@@ -5396,7 +5832,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>10039330</v>
       </c>
@@ -5407,7 +5843,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>11000687</v>
       </c>
@@ -5418,7 +5854,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>11000687</v>
       </c>
@@ -5429,7 +5865,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10017024</v>
       </c>
@@ -5440,13 +5876,13 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10005104</v>
       </c>
@@ -5469,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10039330</v>
       </c>
@@ -5480,7 +5916,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10039330</v>
       </c>
@@ -5491,7 +5927,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10039330</v>
       </c>
@@ -5502,7 +5938,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>11000687</v>
       </c>
@@ -5513,7 +5949,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>11000687</v>
       </c>
@@ -5524,7 +5960,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>11000687</v>
       </c>
@@ -5535,7 +5971,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10008584</v>
       </c>
@@ -5546,7 +5982,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -5555,7 +5991,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -5564,7 +6000,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -5573,7 +6009,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -5582,7 +6018,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5591,26 +6027,26 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="G36:G43"/>
@@ -5668,18 +6104,18 @@
       <selection activeCell="E35" sqref="E35:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +6138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10028166</v>
       </c>
@@ -5725,7 +6161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10014866</v>
       </c>
@@ -5736,7 +6172,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>10017007</v>
       </c>
@@ -5747,7 +6183,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>10030337</v>
       </c>
@@ -5758,7 +6194,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10023684</v>
       </c>
@@ -5769,7 +6205,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10001400</v>
       </c>
@@ -5780,7 +6216,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10023194</v>
       </c>
@@ -5791,7 +6227,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10017266</v>
       </c>
@@ -5802,13 +6238,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10024658</v>
       </c>
@@ -5831,7 +6267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>10024658</v>
       </c>
@@ -5842,7 +6278,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10015247</v>
       </c>
@@ -5853,7 +6289,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10003483</v>
       </c>
@@ -5864,7 +6300,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10001400</v>
       </c>
@@ -5875,7 +6311,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>10023194</v>
       </c>
@@ -5886,13 +6322,13 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10023698</v>
       </c>
@@ -5915,7 +6351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10023698</v>
       </c>
@@ -5926,7 +6362,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10015247</v>
       </c>
@@ -5937,7 +6373,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10018762</v>
       </c>
@@ -5948,7 +6384,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10003450</v>
       </c>
@@ -5959,7 +6395,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10015179</v>
       </c>
@@ -5970,7 +6406,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10023190</v>
       </c>
@@ -5981,7 +6417,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10023190</v>
       </c>
@@ -5992,13 +6428,13 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10028166</v>
       </c>
@@ -6021,7 +6457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10005051</v>
       </c>
@@ -6032,7 +6468,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10005051</v>
       </c>
@@ -6043,7 +6479,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10028783</v>
       </c>
@@ -6054,7 +6490,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10015188</v>
       </c>
@@ -6065,7 +6501,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>14000119</v>
       </c>
@@ -6076,7 +6512,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>10011355</v>
       </c>
@@ -6087,13 +6523,13 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>10016978</v>
       </c>
@@ -6117,7 +6553,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>10016978</v>
       </c>
@@ -6128,7 +6564,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>10028783</v>
       </c>
@@ -6139,7 +6575,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>10000238</v>
       </c>
@@ -6150,7 +6586,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>10003450</v>
       </c>
@@ -6161,7 +6597,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>10003450</v>
       </c>
@@ -6172,13 +6608,13 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>10016039</v>
       </c>
@@ -6201,7 +6637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>10016975</v>
       </c>
@@ -6212,7 +6648,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>10016975</v>
       </c>
@@ -6223,7 +6659,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>10016971</v>
       </c>
@@ -6234,7 +6670,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>10016976</v>
       </c>
@@ -6245,7 +6681,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>10011722</v>
       </c>
@@ -6256,7 +6692,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>10000238</v>
       </c>
@@ -6314,22 +6750,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C231B-3CCE-4E62-B407-0057105A1980}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F68" sqref="F68:F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6352,7 +6788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10005051</v>
       </c>
@@ -6375,7 +6811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>10016988</v>
       </c>
@@ -6386,7 +6822,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>11001420</v>
       </c>
@@ -6397,7 +6833,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10019648</v>
       </c>
@@ -6408,7 +6844,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>10017007</v>
       </c>
@@ -6419,7 +6855,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>10015179</v>
       </c>
@@ -6430,7 +6866,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>10013125</v>
       </c>
@@ -6441,7 +6877,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>10003863</v>
       </c>
@@ -6452,13 +6888,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10031016</v>
       </c>
@@ -6481,7 +6917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10014737</v>
       </c>
@@ -6492,7 +6928,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10005051</v>
       </c>
@@ -6503,7 +6939,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10023224</v>
       </c>
@@ -6514,7 +6950,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11001420</v>
       </c>
@@ -6525,7 +6961,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>11001420</v>
       </c>
@@ -6536,7 +6972,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10019648</v>
       </c>
@@ -6547,7 +6983,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10019648</v>
       </c>
@@ -6558,13 +6994,13 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10024660</v>
       </c>
@@ -6587,7 +7023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10003480</v>
       </c>
@@ -6598,7 +7034,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>11001420</v>
       </c>
@@ -6609,7 +7045,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10019648</v>
       </c>
@@ -6620,7 +7056,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10019648</v>
       </c>
@@ -6631,7 +7067,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10003450</v>
       </c>
@@ -6642,7 +7078,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10026899</v>
       </c>
@@ -6653,7 +7089,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10023116</v>
       </c>
@@ -6664,13 +7100,13 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>11001420</v>
       </c>
@@ -6693,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>11001420</v>
       </c>
@@ -6704,7 +7140,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>11001420</v>
       </c>
@@ -6715,7 +7151,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>11001420</v>
       </c>
@@ -6726,7 +7162,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10019648</v>
       </c>
@@ -6737,7 +7173,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10019648</v>
       </c>
@@ -6748,7 +7184,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10019648</v>
       </c>
@@ -6759,7 +7195,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10019648</v>
       </c>
@@ -6770,13 +7206,13 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10024659</v>
       </c>
@@ -6799,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>10003482</v>
       </c>
@@ -6810,7 +7246,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10003480</v>
       </c>
@@ -6821,7 +7257,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10001720</v>
       </c>
@@ -6832,7 +7268,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>11001420</v>
       </c>
@@ -6843,7 +7279,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>11001420</v>
       </c>
@@ -6854,13 +7290,13 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10023224</v>
       </c>
@@ -6883,7 +7319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10021677</v>
       </c>
@@ -6894,7 +7330,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>11001420</v>
       </c>
@@ -6905,7 +7341,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10019648</v>
       </c>
@@ -6916,7 +7352,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10019648</v>
       </c>
@@ -6927,7 +7363,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10019648</v>
       </c>
@@ -6938,13 +7374,13 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>11001420</v>
       </c>
@@ -6967,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>11001420</v>
       </c>
@@ -6978,7 +7414,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10019648</v>
       </c>
@@ -6989,7 +7425,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>10019648</v>
       </c>
@@ -7000,7 +7436,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10030337</v>
       </c>
@@ -7011,7 +7447,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>10023684</v>
       </c>
@@ -7022,7 +7458,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10019602</v>
       </c>
@@ -7033,13 +7469,13 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10017667</v>
       </c>
@@ -7062,7 +7498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>11001420</v>
       </c>
@@ -7073,7 +7509,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>11001420</v>
       </c>
@@ -7084,7 +7520,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>11001420</v>
       </c>
@@ -7095,7 +7531,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10019648</v>
       </c>
@@ -7106,7 +7542,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>10019648</v>
       </c>
@@ -7117,7 +7553,7 @@
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>10019648</v>
       </c>
@@ -7128,13 +7564,13 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10024660</v>
       </c>
@@ -7157,7 +7593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10029055</v>
       </c>
@@ -7168,7 +7604,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10023698</v>
       </c>
@@ -7179,7 +7615,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10014737</v>
       </c>
@@ -7190,7 +7626,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>10015790</v>
       </c>
@@ -7201,7 +7637,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>11001420</v>
       </c>
@@ -7212,7 +7648,7 @@
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>10019648</v>
       </c>
@@ -7223,7 +7659,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>10004378</v>
       </c>
@@ -7303,18 +7739,18 @@
       <selection activeCell="F82" sqref="F82:F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7337,7 +7773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>10033046</v>
       </c>
@@ -7360,7 +7796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>11000392</v>
       </c>
@@ -7371,7 +7807,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>11000392</v>
       </c>
@@ -7382,7 +7818,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>11000392</v>
       </c>
@@ -7393,7 +7829,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>10042249</v>
       </c>
@@ -7404,7 +7840,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>10042249</v>
       </c>
@@ -7415,7 +7851,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>10042249</v>
       </c>
@@ -7426,7 +7862,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>10042249</v>
       </c>
@@ -7437,7 +7873,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7448,7 +7884,7 @@
       <c r="F10" s="1"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="6">
         <v>10024660</v>
       </c>
@@ -7471,7 +7907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="6">
         <v>10029636</v>
       </c>
@@ -7482,7 +7918,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="6">
         <v>11000392</v>
       </c>
@@ -7493,7 +7929,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="6">
         <v>11000392</v>
       </c>
@@ -7504,7 +7940,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="6">
         <v>11000392</v>
       </c>
@@ -7515,7 +7951,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="6">
         <v>11000392</v>
       </c>
@@ -7526,7 +7962,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="6">
         <v>10042249</v>
       </c>
@@ -7537,7 +7973,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="6">
         <v>10042249</v>
       </c>
@@ -7548,7 +7984,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="6">
         <v>10042249</v>
       </c>
@@ -7559,13 +7995,13 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10031016</v>
       </c>
@@ -7588,7 +8024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>11000392</v>
       </c>
@@ -7599,7 +8035,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>11000392</v>
       </c>
@@ -7610,7 +8046,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>11000392</v>
       </c>
@@ -7621,7 +8057,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>11000392</v>
       </c>
@@ -7632,7 +8068,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10042249</v>
       </c>
@@ -7643,7 +8079,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10042249</v>
       </c>
@@ -7654,7 +8090,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10042249</v>
       </c>
@@ -7665,7 +8101,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10042249</v>
       </c>
@@ -7676,13 +8112,13 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>11000392</v>
       </c>
@@ -7705,7 +8141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>11000392</v>
       </c>
@@ -7716,7 +8152,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>11000392</v>
       </c>
@@ -7727,7 +8163,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>10042249</v>
       </c>
@@ -7738,7 +8174,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10042249</v>
       </c>
@@ -7749,7 +8185,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10042249</v>
       </c>
@@ -7760,7 +8196,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10042249</v>
       </c>
@@ -7771,7 +8207,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10011403</v>
       </c>
@@ -7782,13 +8218,13 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>10031016</v>
       </c>
@@ -7811,7 +8247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>10024660</v>
       </c>
@@ -7822,7 +8258,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>11000392</v>
       </c>
@@ -7833,7 +8269,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>11000392</v>
       </c>
@@ -7844,7 +8280,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>11000392</v>
       </c>
@@ -7855,7 +8291,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>11000392</v>
       </c>
@@ -7866,7 +8302,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10042249</v>
       </c>
@@ -7877,7 +8313,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>10042249</v>
       </c>
@@ -7888,7 +8324,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>10042249</v>
       </c>
@@ -7899,7 +8335,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10042249</v>
       </c>
@@ -7910,13 +8346,13 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>10002299</v>
       </c>
@@ -7939,7 +8375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>10002298</v>
       </c>
@@ -7950,7 +8386,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10002300</v>
       </c>
@@ -7961,7 +8397,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>11000392</v>
       </c>
@@ -7972,7 +8408,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>11000392</v>
       </c>
@@ -7983,7 +8419,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>11000392</v>
       </c>
@@ -7994,7 +8430,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>10042249</v>
       </c>
@@ -8005,7 +8441,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10042249</v>
       </c>
@@ -8016,7 +8452,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10042249</v>
       </c>
@@ -8027,7 +8463,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10042249</v>
       </c>
@@ -8038,13 +8474,13 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10028166</v>
       </c>
@@ -8067,7 +8503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>10017642</v>
       </c>
@@ -8078,7 +8514,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10030337</v>
       </c>
@@ -8089,7 +8525,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>11000392</v>
       </c>
@@ -8100,7 +8536,7 @@
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>11000392</v>
       </c>
@@ -8111,7 +8547,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>11000392</v>
       </c>
@@ -8122,7 +8558,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10042249</v>
       </c>
@@ -8133,7 +8569,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10042249</v>
       </c>
@@ -8144,7 +8580,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10042249</v>
       </c>
@@ -8155,7 +8591,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>10042249</v>
       </c>
@@ -8166,13 +8602,13 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>11000392</v>
       </c>
@@ -8195,7 +8631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>11000392</v>
       </c>
@@ -8206,7 +8642,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>11000392</v>
       </c>
@@ -8217,7 +8653,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>10042249</v>
       </c>
@@ -8228,7 +8664,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>10042249</v>
       </c>
@@ -8239,7 +8675,7 @@
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>10042249</v>
       </c>
@@ -8250,7 +8686,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>10042249</v>
       </c>
@@ -8261,7 +8697,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>10001400</v>
       </c>
@@ -8272,13 +8708,13 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>10013125</v>
       </c>
@@ -8301,7 +8737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>10013125</v>
       </c>
@@ -8312,7 +8748,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>11000392</v>
       </c>
@@ -8323,7 +8759,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>11000392</v>
       </c>
@@ -8334,7 +8770,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>11000392</v>
       </c>
@@ -8345,7 +8781,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>10042249</v>
       </c>
@@ -8356,7 +8792,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>10042249</v>
       </c>
@@ -8367,7 +8803,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>10042249</v>
       </c>
@@ -8378,7 +8814,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>10042249</v>
       </c>
@@ -8389,7 +8825,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -8398,7 +8834,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -8407,7 +8843,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8416,7 +8852,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -8425,7 +8861,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -8434,7 +8870,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -8443,199 +8879,199 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+    <row r="131" customFormat="1"/>
+    <row r="132" customFormat="1"/>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+    <row r="204" customFormat="1"/>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1"/>
+    <row r="208" customFormat="1"/>
+    <row r="209" customFormat="1"/>
+    <row r="210" customFormat="1"/>
+    <row r="211" customFormat="1"/>
+    <row r="212" customFormat="1"/>
+    <row r="213" customFormat="1"/>
+    <row r="214" customFormat="1"/>
+    <row r="215" customFormat="1"/>
+    <row r="216" customFormat="1"/>
+    <row r="217" customFormat="1"/>
+    <row r="218" customFormat="1"/>
+    <row r="219" customFormat="1"/>
+    <row r="220" customFormat="1"/>
+    <row r="221" customFormat="1"/>
+    <row r="222" customFormat="1"/>
+    <row r="223" customFormat="1"/>
+    <row r="224" customFormat="1"/>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" spans="1:7">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -8644,7 +9080,7 @@
       <c r="F289"/>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -8653,7 +9089,7 @@
       <c r="F290"/>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -8662,7 +9098,7 @@
       <c r="F291"/>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -8671,7 +9107,7 @@
       <c r="F292"/>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -8680,7 +9116,7 @@
       <c r="F293"/>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -8689,7 +9125,7 @@
       <c r="F294"/>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -8698,7 +9134,7 @@
       <c r="F295"/>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -8707,7 +9143,7 @@
       <c r="F296"/>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -8716,7 +9152,7 @@
       <c r="F297"/>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -8725,7 +9161,7 @@
       <c r="F298"/>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -8734,7 +9170,7 @@
       <c r="F299"/>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -8743,7 +9179,7 @@
       <c r="F300"/>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -8752,16 +9188,16 @@
       <c r="F301"/>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="G304"/>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:7">
       <c r="G305"/>
     </row>
   </sheetData>
@@ -8833,18 +9269,18 @@
       <selection activeCell="F49" sqref="F49:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8867,7 +9303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>10023698</v>
       </c>
@@ -8890,7 +9326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>10018762</v>
       </c>
@@ -8901,7 +9337,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>10003482</v>
       </c>
@@ -8912,7 +9348,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>10003450</v>
       </c>
@@ -8923,7 +9359,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>13000295</v>
       </c>
@@ -8934,7 +9370,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -8945,7 +9381,7 @@
       <c r="F7" s="1"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="6">
         <v>10018762</v>
       </c>
@@ -8968,7 +9404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="6">
         <v>10015790</v>
       </c>
@@ -8979,7 +9415,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="6">
         <v>13000295</v>
       </c>
@@ -8990,13 +9426,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10003480</v>
       </c>
@@ -9019,7 +9455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>10017642</v>
       </c>
@@ -9030,7 +9466,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10003450</v>
       </c>
@@ -9041,7 +9477,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>13000295</v>
       </c>
@@ -9052,13 +9488,13 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10015247</v>
       </c>
@@ -9081,7 +9517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10017003</v>
       </c>
@@ -9092,7 +9528,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10003450</v>
       </c>
@@ -9103,7 +9539,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10003450</v>
       </c>
@@ -9114,7 +9550,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>13000295</v>
       </c>
@@ -9125,7 +9561,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>13000295</v>
       </c>
@@ -9136,7 +9572,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10023194</v>
       </c>
@@ -9147,7 +9583,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10023190</v>
       </c>
@@ -9158,13 +9594,13 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10015790</v>
       </c>
@@ -9187,7 +9623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10014865</v>
       </c>
@@ -9198,7 +9634,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10028562</v>
       </c>
@@ -9209,7 +9645,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10004378</v>
       </c>
@@ -9220,7 +9656,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10003450</v>
       </c>
@@ -9231,7 +9667,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>10003450</v>
       </c>
@@ -9242,7 +9678,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>13000295</v>
       </c>
@@ -9253,7 +9689,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>10015188</v>
       </c>
@@ -9264,13 +9700,13 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>10028783</v>
       </c>
@@ -9293,7 +9729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>10019034</v>
       </c>
@@ -9304,7 +9740,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>10003450</v>
       </c>
@@ -9315,7 +9751,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>10003450</v>
       </c>
@@ -9326,7 +9762,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>13000295</v>
       </c>
@@ -9337,7 +9773,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>13000295</v>
       </c>
@@ -9348,7 +9784,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>13000295</v>
       </c>
@@ -9359,7 +9795,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>14000119</v>
       </c>
@@ -9370,13 +9806,13 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>10029636</v>
       </c>
@@ -9399,7 +9835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>10033046</v>
       </c>
@@ -9410,7 +9846,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>10003450</v>
       </c>
@@ -9421,7 +9857,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>13000295</v>
       </c>
@@ -9432,13 +9868,13 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>10023698</v>
       </c>
@@ -9461,7 +9897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>10003480</v>
       </c>
@@ -9472,7 +9908,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>13000295</v>
       </c>
@@ -9483,13 +9919,13 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>10001720</v>
       </c>
@@ -9512,7 +9948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>10003450</v>
       </c>
@@ -9523,7 +9959,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>13000295</v>
       </c>
@@ -9534,7 +9970,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>10005103</v>
       </c>
@@ -9545,13 +9981,13 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>10011829</v>
       </c>
@@ -9574,7 +10010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>10008584</v>
       </c>
@@ -9585,7 +10021,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>10003450</v>
       </c>
@@ -9596,7 +10032,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>10003450</v>
       </c>
@@ -9607,7 +10043,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>10003450</v>
       </c>
@@ -9618,7 +10054,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>13000295</v>
       </c>
@@ -9629,7 +10065,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>10015188</v>
       </c>
@@ -9640,7 +10076,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>10023115</v>
       </c>
@@ -9651,13 +10087,13 @@
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>10019034</v>
       </c>
@@ -9680,7 +10116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>10017013</v>
       </c>
@@ -9691,7 +10127,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>10003450</v>
       </c>
@@ -9702,7 +10138,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>10003450</v>
       </c>
@@ -9713,7 +10149,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>13000295</v>
       </c>
@@ -9724,7 +10160,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>13000295</v>
       </c>
@@ -9735,13 +10171,13 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>10003450</v>
       </c>
@@ -9764,7 +10200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>10003450</v>
       </c>
@@ -9775,7 +10211,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>10003450</v>
       </c>
@@ -9786,7 +10222,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>10003450</v>
       </c>
@@ -9797,7 +10233,7 @@
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>13000295</v>
       </c>
@@ -9808,7 +10244,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>13000295</v>
       </c>
@@ -9819,7 +10255,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>13000295</v>
       </c>
@@ -9830,7 +10266,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>13000295</v>
       </c>
@@ -9841,7 +10277,7 @@
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -9850,7 +10286,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -9859,7 +10295,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -9868,7 +10304,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -9877,7 +10313,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -9886,7 +10322,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -9895,7 +10331,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -9904,7 +10340,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -9913,7 +10349,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -9922,7 +10358,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -9931,7 +10367,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -9940,7 +10376,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -9949,7 +10385,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -9958,7 +10394,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -9967,7 +10403,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -9976,23 +10412,23 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -10001,7 +10437,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -10010,7 +10446,7 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -10019,7 +10455,7 @@
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -10028,7 +10464,7 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -10037,7 +10473,7 @@
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -10046,7 +10482,7 @@
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -10055,7 +10491,7 @@
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -10064,16 +10500,16 @@
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="G124"/>
     </row>
   </sheetData>
